--- a/siconfi/despesas.xlsx
+++ b/siconfi/despesas.xlsx
@@ -439,10 +439,10 @@
         <v>7762728070.47</v>
       </c>
       <c r="F3">
-        <v>-7.185225662415029</v>
+        <v>-7.19</v>
       </c>
       <c r="G3">
-        <v>92.81477433758496</v>
+        <v>92.81</v>
       </c>
     </row>
     <row r="4">
@@ -466,10 +466,10 @@
         <v>8012579762.65</v>
       </c>
       <c r="F4">
-        <v>3.218606782459044</v>
+        <v>3.22</v>
       </c>
       <c r="G4">
-        <v>95.80211695953854</v>
+        <v>95.8</v>
       </c>
     </row>
     <row r="5">
@@ -493,10 +493,10 @@
         <v>8333814104.55</v>
       </c>
       <c r="F5">
-        <v>4.009125043564721</v>
+        <v>4.01</v>
       </c>
       <c r="G5">
-        <v>99.64294362282857</v>
+        <v>99.64</v>
       </c>
     </row>
     <row r="6">
@@ -520,10 +520,10 @@
         <v>9720307822.870001</v>
       </c>
       <c r="F6">
-        <v>16.63696479098351</v>
+        <v>16.64</v>
       </c>
       <c r="G6">
-        <v>116.2205050700581</v>
+        <v>116.22</v>
       </c>
     </row>
     <row r="7">
@@ -571,10 +571,10 @@
         <v>7556183333.3</v>
       </c>
       <c r="F8">
-        <v>-8.620520252088559</v>
+        <v>-8.619999999999999</v>
       </c>
       <c r="G8">
-        <v>91.37947974791145</v>
+        <v>91.38</v>
       </c>
     </row>
     <row r="9">
@@ -598,10 +598,10 @@
         <v>7608658248.01</v>
       </c>
       <c r="F9">
-        <v>0.6944632282642527</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="G9">
-        <v>92.01407663293986</v>
+        <v>92.01000000000001</v>
       </c>
     </row>
     <row r="10">
@@ -625,10 +625,10 @@
         <v>7952477188.58</v>
       </c>
       <c r="F10">
-        <v>4.518785433159955</v>
+        <v>4.52</v>
       </c>
       <c r="G10">
-        <v>96.17199532428579</v>
+        <v>96.17</v>
       </c>
     </row>
     <row r="11">
@@ -652,10 +652,10 @@
         <v>9392292744.5</v>
       </c>
       <c r="F11">
-        <v>18.10524597275953</v>
+        <v>18.11</v>
       </c>
       <c r="G11">
-        <v>113.5841716346585</v>
+        <v>113.58</v>
       </c>
     </row>
     <row r="12">
@@ -703,10 +703,10 @@
         <v>7467041866.06</v>
       </c>
       <c r="F13">
-        <v>-8.896532914384602</v>
+        <v>-8.9</v>
       </c>
       <c r="G13">
-        <v>91.10346708561539</v>
+        <v>91.09999999999999</v>
       </c>
     </row>
     <row r="14">
@@ -730,10 +730,10 @@
         <v>7537769230.22</v>
       </c>
       <c r="F14">
-        <v>0.9471938878698127</v>
+        <v>0.95</v>
       </c>
       <c r="G14">
-        <v>91.96639355748783</v>
+        <v>91.97</v>
       </c>
     </row>
     <row r="15">
@@ -757,10 +757,10 @@
         <v>7896105388.33</v>
       </c>
       <c r="F15">
-        <v>4.753875412812825</v>
+        <v>4.75</v>
       </c>
       <c r="G15">
-        <v>96.33836132886793</v>
+        <v>96.34</v>
       </c>
     </row>
     <row r="16">
@@ -784,10 +784,10 @@
         <v>9266488967.92</v>
       </c>
       <c r="F16">
-        <v>17.35518350116438</v>
+        <v>17.36</v>
       </c>
       <c r="G16">
-        <v>113.0580607195078</v>
+        <v>113.06</v>
       </c>
     </row>
     <row r="17">
@@ -835,10 +835,10 @@
         <v>206544737.17</v>
       </c>
       <c r="F18">
-        <v>118.1926021341396</v>
+        <v>118.19</v>
       </c>
       <c r="G18">
-        <v>218.1926021341395</v>
+        <v>218.19</v>
       </c>
     </row>
     <row r="19">
@@ -862,10 +862,10 @@
         <v>403921514.64</v>
       </c>
       <c r="F19">
-        <v>95.56127170044806</v>
+        <v>95.56</v>
       </c>
       <c r="G19">
-        <v>426.7002274898223</v>
+        <v>426.7</v>
       </c>
     </row>
     <row r="20">
@@ -889,10 +889,10 @@
         <v>381336915.97</v>
       </c>
       <c r="F20">
-        <v>-5.591333427764733</v>
+        <v>-5.59</v>
       </c>
       <c r="G20">
-        <v>402.8419950338357</v>
+        <v>402.84</v>
       </c>
     </row>
     <row r="21">
@@ -916,10 +916,10 @@
         <v>328015078.37</v>
       </c>
       <c r="F21">
-        <v>-13.98286800121782</v>
+        <v>-13.98</v>
       </c>
       <c r="G21">
-        <v>346.513130614782</v>
+        <v>346.51</v>
       </c>
     </row>
     <row r="22">
@@ -967,10 +967,10 @@
         <v>89141467.23999999</v>
       </c>
       <c r="F23">
-        <v>22.45701599694165</v>
+        <v>22.46</v>
       </c>
       <c r="G23">
-        <v>122.4570159969416</v>
+        <v>122.46</v>
       </c>
     </row>
     <row r="24">
@@ -994,10 +994,10 @@
         <v>70889017.79000001</v>
       </c>
       <c r="F24">
-        <v>-20.47582344685668</v>
+        <v>-20.48</v>
       </c>
       <c r="G24">
-        <v>97.38293360311884</v>
+        <v>97.38</v>
       </c>
     </row>
     <row r="25">
@@ -1021,10 +1021,10 @@
         <v>56371800.25</v>
       </c>
       <c r="F25">
-        <v>-20.4787962826703</v>
+        <v>-20.48</v>
       </c>
       <c r="G25">
-        <v>77.44008101644806</v>
+        <v>77.44</v>
       </c>
     </row>
     <row r="26">
@@ -1048,10 +1048,10 @@
         <v>125803776.58</v>
       </c>
       <c r="F26">
-        <v>123.1679244268946</v>
+        <v>123.17</v>
       </c>
       <c r="G26">
-        <v>172.8214214789128</v>
+        <v>172.82</v>
       </c>
     </row>
     <row r="27">
@@ -1099,10 +1099,10 @@
         <v>11326484361.74</v>
       </c>
       <c r="F28">
-        <v>-14.1837212782699</v>
+        <v>-14.18</v>
       </c>
       <c r="G28">
-        <v>85.8162787217301</v>
+        <v>85.81999999999999</v>
       </c>
     </row>
     <row r="29">
@@ -1126,10 +1126,10 @@
         <v>12122059630.93</v>
       </c>
       <c r="F29">
-        <v>7.024026553882812</v>
+        <v>7.02</v>
       </c>
       <c r="G29">
-        <v>91.84403692669851</v>
+        <v>91.84</v>
       </c>
     </row>
     <row r="30">
@@ -1153,10 +1153,10 @@
         <v>15466681420.82</v>
       </c>
       <c r="F30">
-        <v>27.59120060221483</v>
+        <v>27.59</v>
       </c>
       <c r="G30">
-        <v>117.1849093963162</v>
+        <v>117.18</v>
       </c>
     </row>
     <row r="31">
@@ -1180,10 +1180,10 @@
         <v>15925126198.48</v>
       </c>
       <c r="F31">
-        <v>2.964079786649498</v>
+        <v>2.96</v>
       </c>
       <c r="G31">
-        <v>120.6583636087359</v>
+        <v>120.66</v>
       </c>
     </row>
     <row r="32">
@@ -1231,10 +1231,10 @@
         <v>11043777009.4</v>
       </c>
       <c r="F33">
-        <v>-15.26929363837691</v>
+        <v>-15.27</v>
       </c>
       <c r="G33">
-        <v>84.73070636162309</v>
+        <v>84.73</v>
       </c>
     </row>
     <row r="34">
@@ -1258,10 +1258,10 @@
         <v>11661813263.52</v>
       </c>
       <c r="F34">
-        <v>5.596239887802468</v>
+        <v>5.6</v>
       </c>
       <c r="G34">
-        <v>89.47243994824902</v>
+        <v>89.47</v>
       </c>
     </row>
     <row r="35">
@@ -1285,10 +1285,10 @@
         <v>13353415228.04</v>
       </c>
       <c r="F35">
-        <v>14.50547977655927</v>
+        <v>14.51</v>
       </c>
       <c r="G35">
-        <v>102.4508466305364</v>
+        <v>102.45</v>
       </c>
     </row>
     <row r="36">
@@ -1312,10 +1312,10 @@
         <v>15768956981.65</v>
       </c>
       <c r="F36">
-        <v>18.08931806851744</v>
+        <v>18.09</v>
       </c>
       <c r="G36">
-        <v>120.9835061414231</v>
+        <v>120.98</v>
       </c>
     </row>
     <row r="37">
@@ -1363,10 +1363,10 @@
         <v>10362845194.81</v>
       </c>
       <c r="F38">
-        <v>-15.73056715208099</v>
+        <v>-15.73</v>
       </c>
       <c r="G38">
-        <v>84.26943284791901</v>
+        <v>84.27</v>
       </c>
     </row>
     <row r="39">
@@ -1390,10 +1390,10 @@
         <v>11286613010.38</v>
       </c>
       <c r="F39">
-        <v>8.914229617486203</v>
+        <v>8.91</v>
       </c>
       <c r="G39">
-        <v>91.78140358933585</v>
+        <v>91.78</v>
       </c>
     </row>
     <row r="40">
@@ -1417,10 +1417,10 @@
         <v>12777777445.03</v>
       </c>
       <c r="F40">
-        <v>13.21179731491295</v>
+        <v>13.21</v>
       </c>
       <c r="G40">
-        <v>103.9073766043412</v>
+        <v>103.91</v>
       </c>
     </row>
     <row r="41">
@@ -1444,10 +1444,10 @@
         <v>14974112715.49</v>
       </c>
       <c r="F41">
-        <v>17.18871125990911</v>
+        <v>17.19</v>
       </c>
       <c r="G41">
-        <v>121.7677155466077</v>
+        <v>121.77</v>
       </c>
     </row>
     <row r="42">
@@ -1495,10 +1495,10 @@
         <v>282707352.34</v>
       </c>
       <c r="F43">
-        <v>71.80213975417283</v>
+        <v>71.8</v>
       </c>
       <c r="G43">
-        <v>171.8021397541728</v>
+        <v>171.8</v>
       </c>
     </row>
     <row r="44">
@@ -1522,10 +1522,10 @@
         <v>460246367.42</v>
       </c>
       <c r="F44">
-        <v>62.79957475831102</v>
+        <v>62.8</v>
       </c>
       <c r="G44">
-        <v>279.6931529454725</v>
+        <v>279.69</v>
       </c>
     </row>
     <row r="45">
@@ -1549,10 +1549,10 @@
         <v>2113266192.78</v>
       </c>
       <c r="F45">
-        <v>359.159776670552</v>
+        <v>359.16</v>
       </c>
       <c r="G45">
-        <v>1284.238456427257</v>
+        <v>1284.24</v>
       </c>
     </row>
     <row r="46">
@@ -1576,10 +1576,10 @@
         <v>156169216.83</v>
       </c>
       <c r="F46">
-        <v>-92.61005464604723</v>
+        <v>-92.61</v>
       </c>
       <c r="G46">
-        <v>94.90452014442081</v>
+        <v>94.90000000000001</v>
       </c>
     </row>
     <row r="47">
@@ -1627,10 +1627,10 @@
         <v>680931814.6</v>
       </c>
       <c r="F48">
-        <v>-7.569499065238983</v>
+        <v>-7.57</v>
       </c>
       <c r="G48">
-        <v>92.43050093476101</v>
+        <v>92.43000000000001</v>
       </c>
     </row>
     <row r="49">
@@ -1654,10 +1654,10 @@
         <v>375200253.13</v>
       </c>
       <c r="F49">
-        <v>-44.89899794880284</v>
+        <v>-44.9</v>
       </c>
       <c r="G49">
-        <v>50.93013221599448</v>
+        <v>50.93</v>
       </c>
     </row>
     <row r="50">
@@ -1681,10 +1681,10 @@
         <v>575637783.01</v>
       </c>
       <c r="F50">
-        <v>53.42148045154757</v>
+        <v>53.42</v>
       </c>
       <c r="G50">
-        <v>78.1377628417093</v>
+        <v>78.14</v>
       </c>
     </row>
     <row r="51">
@@ -1708,10 +1708,10 @@
         <v>794844266.16</v>
       </c>
       <c r="F51">
-        <v>38.08062806506083</v>
+        <v>38.08</v>
       </c>
       <c r="G51">
-        <v>107.8931136878199</v>
+        <v>107.89</v>
       </c>
     </row>
     <row r="52">
@@ -1759,10 +1759,10 @@
         <v>6266735490.04</v>
       </c>
       <c r="F53">
-        <v>5.919713124796311</v>
+        <v>5.92</v>
       </c>
       <c r="G53">
-        <v>105.9197131247963</v>
+        <v>105.92</v>
       </c>
     </row>
     <row r="54">
@@ -1786,10 +1786,10 @@
         <v>6295055877.08</v>
       </c>
       <c r="F54">
-        <v>0.4519161066397492</v>
+        <v>0.45</v>
       </c>
       <c r="G54">
-        <v>106.3983813685139</v>
+        <v>106.4</v>
       </c>
     </row>
     <row r="55">
@@ -1813,10 +1813,10 @@
         <v>6298714493.49</v>
       </c>
       <c r="F55">
-        <v>0.05811888697160317</v>
+        <v>0.06</v>
       </c>
       <c r="G55">
-        <v>106.4602189235211</v>
+        <v>106.46</v>
       </c>
     </row>
     <row r="56">
@@ -1840,10 +1840,10 @@
         <v>7431120842.48</v>
       </c>
       <c r="F56">
-        <v>17.97837241488547</v>
+        <v>17.98</v>
       </c>
       <c r="G56">
-        <v>125.6000335552941</v>
+        <v>125.6</v>
       </c>
     </row>
     <row r="57">
@@ -1891,10 +1891,10 @@
         <v>5990806042.44</v>
       </c>
       <c r="F58">
-        <v>7.958578020251439</v>
+        <v>7.96</v>
       </c>
       <c r="G58">
-        <v>107.9585780202514</v>
+        <v>107.96</v>
       </c>
     </row>
     <row r="59">
@@ -1918,10 +1918,10 @@
         <v>5829433907.22</v>
       </c>
       <c r="F59">
-        <v>-2.69366315779227</v>
+        <v>-2.69</v>
       </c>
       <c r="G59">
-        <v>105.0505375784435</v>
+        <v>105.05</v>
       </c>
     </row>
     <row r="60">
@@ -1945,10 +1945,10 @@
         <v>5814616868.78</v>
       </c>
       <c r="F60">
-        <v>-0.2541762832519501</v>
+        <v>-0.25</v>
       </c>
       <c r="G60">
-        <v>104.7835240264904</v>
+        <v>104.78</v>
       </c>
     </row>
     <row r="61">
@@ -1972,10 +1972,10 @@
         <v>6909530321.47</v>
       </c>
       <c r="F61">
-        <v>18.83036281494039</v>
+        <v>18.83</v>
       </c>
       <c r="G61">
-        <v>124.5146417709588</v>
+        <v>124.51</v>
       </c>
     </row>
     <row r="62">
@@ -2023,10 +2023,10 @@
         <v>4883506305.58</v>
       </c>
       <c r="F63">
-        <v>17.85666200724572</v>
+        <v>17.86</v>
       </c>
       <c r="G63">
-        <v>117.8566620072457</v>
+        <v>117.86</v>
       </c>
     </row>
     <row r="64">
@@ -2050,10 +2050,10 @@
         <v>5024998670.35</v>
       </c>
       <c r="F64">
-        <v>2.897351941745785</v>
+        <v>2.9</v>
       </c>
       <c r="G64">
-        <v>121.2713842923894</v>
+        <v>121.27</v>
       </c>
     </row>
     <row r="65">
@@ -2077,10 +2077,10 @@
         <v>5311104085.44</v>
       </c>
       <c r="F65">
-        <v>5.693641607870736</v>
+        <v>5.69</v>
       </c>
       <c r="G65">
-        <v>128.1761422869017</v>
+        <v>128.18</v>
       </c>
     </row>
     <row r="66">
@@ -2104,10 +2104,10 @@
         <v>6339366213.78</v>
       </c>
       <c r="F66">
-        <v>19.36060961710211</v>
+        <v>19.36</v>
       </c>
       <c r="G66">
-        <v>152.9918248173301</v>
+        <v>152.99</v>
       </c>
     </row>
     <row r="67">
@@ -2155,10 +2155,10 @@
         <v>275929447.61</v>
       </c>
       <c r="F68">
-        <v>-24.88137856731458</v>
+        <v>-24.88</v>
       </c>
       <c r="G68">
-        <v>75.11862143268542</v>
+        <v>75.12</v>
       </c>
     </row>
     <row r="69">
@@ -2182,10 +2182,10 @@
         <v>465621969.86</v>
       </c>
       <c r="F69">
-        <v>68.74674808834189</v>
+        <v>68.75</v>
       </c>
       <c r="G69">
-        <v>126.7602308764489</v>
+        <v>126.76</v>
       </c>
     </row>
     <row r="70">
@@ -2209,10 +2209,10 @@
         <v>484097624.71</v>
       </c>
       <c r="F70">
-        <v>3.967951695998173</v>
+        <v>3.97</v>
       </c>
       <c r="G70">
-        <v>131.7900156073621</v>
+        <v>131.79</v>
       </c>
     </row>
     <row r="71">
@@ -2236,10 +2236,10 @@
         <v>521590521.01</v>
       </c>
       <c r="F71">
-        <v>7.744903999985597</v>
+        <v>7.74</v>
       </c>
       <c r="G71">
-        <v>141.9970257977183</v>
+        <v>142</v>
       </c>
     </row>
     <row r="72">
@@ -2287,10 +2287,10 @@
         <v>1107299736.85</v>
       </c>
       <c r="F73">
-        <v>45.06405599916506</v>
+        <v>45.06</v>
       </c>
       <c r="G73">
-        <v>145.064055999165</v>
+        <v>145.06</v>
       </c>
     </row>
     <row r="74">
@@ -2314,10 +2314,10 @@
         <v>804435236.87</v>
       </c>
       <c r="F74">
-        <v>-27.35162755854853</v>
+        <v>-27.35</v>
       </c>
       <c r="G74">
-        <v>105.3866756809492</v>
+        <v>105.39</v>
       </c>
     </row>
     <row r="75">
@@ -2341,10 +2341,10 @@
         <v>503512783.34</v>
       </c>
       <c r="F75">
-        <v>-37.40791548377067</v>
+        <v>-37.41</v>
       </c>
       <c r="G75">
-        <v>65.96371711106418</v>
+        <v>65.95999999999999</v>
       </c>
     </row>
     <row r="76">
@@ -2368,10 +2368,10 @@
         <v>570164107.6900001</v>
       </c>
       <c r="F76">
-        <v>13.23726557802076</v>
+        <v>13.24</v>
       </c>
       <c r="G76">
-        <v>74.69550953019008</v>
+        <v>74.7</v>
       </c>
     </row>
     <row r="77">
@@ -2419,10 +2419,10 @@
         <v>23487373457.24</v>
       </c>
       <c r="F78">
-        <v>4.9564936036818</v>
+        <v>4.96</v>
       </c>
       <c r="G78">
-        <v>104.9564936036818</v>
+        <v>104.96</v>
       </c>
     </row>
     <row r="79">
@@ -2446,10 +2446,10 @@
         <v>25120885854.16</v>
       </c>
       <c r="F79">
-        <v>6.954853423239915</v>
+        <v>6.95</v>
       </c>
       <c r="G79">
-        <v>112.2560638919901</v>
+        <v>112.26</v>
       </c>
     </row>
     <row r="80">
@@ -2473,10 +2473,10 @@
         <v>26317819357.04</v>
       </c>
       <c r="F80">
-        <v>4.76469464424476</v>
+        <v>4.76</v>
       </c>
       <c r="G80">
-        <v>117.6047225560917</v>
+        <v>117.6</v>
       </c>
     </row>
     <row r="81">
@@ -2500,10 +2500,10 @@
         <v>29110982025.87</v>
       </c>
       <c r="F81">
-        <v>10.61319948638841</v>
+        <v>10.61</v>
       </c>
       <c r="G81">
-        <v>130.0863463663833</v>
+        <v>130.09</v>
       </c>
     </row>
     <row r="82">
@@ -2551,10 +2551,10 @@
         <v>22406250273.14</v>
       </c>
       <c r="F83">
-        <v>3.570740662597349</v>
+        <v>3.57</v>
       </c>
       <c r="G83">
-        <v>103.5707406625973</v>
+        <v>103.57</v>
       </c>
     </row>
     <row r="84">
@@ -2578,10 +2578,10 @@
         <v>23731837319.35</v>
       </c>
       <c r="F84">
-        <v>5.916148530212029</v>
+        <v>5.92</v>
       </c>
       <c r="G84">
-        <v>109.6981395140373</v>
+        <v>109.7</v>
       </c>
     </row>
     <row r="85">
@@ -2605,10 +2605,10 @@
         <v>24994566399.84</v>
       </c>
       <c r="F85">
-        <v>5.32082309303723</v>
+        <v>5.32</v>
       </c>
       <c r="G85">
-        <v>115.5349834539324</v>
+        <v>115.53</v>
       </c>
     </row>
     <row r="86">
@@ -2632,10 +2632,10 @@
         <v>28270421489.33</v>
       </c>
       <c r="F86">
-        <v>13.10626892695754</v>
+        <v>13.11</v>
       </c>
       <c r="G86">
-        <v>130.6773090901207</v>
+        <v>130.68</v>
       </c>
     </row>
     <row r="87">
@@ -2683,10 +2683,10 @@
         <v>21702142374.34</v>
       </c>
       <c r="F88">
-        <v>2.380763141996267</v>
+        <v>2.38</v>
       </c>
       <c r="G88">
-        <v>102.3807631419963</v>
+        <v>102.38</v>
       </c>
     </row>
     <row r="89">
@@ -2710,10 +2710,10 @@
         <v>23642653636.54</v>
       </c>
       <c r="F89">
-        <v>8.941565439614884</v>
+        <v>8.94</v>
       </c>
       <c r="G89">
-        <v>111.535206075915</v>
+        <v>111.54</v>
       </c>
     </row>
     <row r="90">
@@ -2737,10 +2737,10 @@
         <v>24906284295.06</v>
       </c>
       <c r="F90">
-        <v>5.34470740021773</v>
+        <v>5.34</v>
       </c>
       <c r="G90">
-        <v>117.4964364889025</v>
+        <v>117.5</v>
       </c>
     </row>
     <row r="91">
@@ -2764,10 +2764,10 @@
         <v>27339875095.44</v>
       </c>
       <c r="F91">
-        <v>9.770991013953401</v>
+        <v>9.77</v>
       </c>
       <c r="G91">
-        <v>128.9770027399486</v>
+        <v>128.98</v>
       </c>
     </row>
     <row r="92">
@@ -2815,10 +2815,10 @@
         <v>1081123184.1</v>
       </c>
       <c r="F93">
-        <v>45.22738545717813</v>
+        <v>45.23</v>
       </c>
       <c r="G93">
-        <v>145.2273854571781</v>
+        <v>145.23</v>
       </c>
     </row>
     <row r="94">
@@ -2842,10 +2842,10 @@
         <v>1389048534.81</v>
       </c>
       <c r="F94">
-        <v>28.4819857014109</v>
+        <v>28.48</v>
       </c>
       <c r="G94">
-        <v>186.5910286176245</v>
+        <v>186.59</v>
       </c>
     </row>
     <row r="95">
@@ -2869,10 +2869,10 @@
         <v>1323252957.2</v>
       </c>
       <c r="F95">
-        <v>-4.736737123371981</v>
+        <v>-4.74</v>
       </c>
       <c r="G95">
-        <v>177.7527020962118</v>
+        <v>177.75</v>
       </c>
     </row>
     <row r="96">
@@ -2896,10 +2896,10 @@
         <v>840560536.54</v>
       </c>
       <c r="F96">
-        <v>-36.47771335281018</v>
+        <v>-36.48</v>
       </c>
       <c r="G96">
-        <v>112.9125809486811</v>
+        <v>112.91</v>
       </c>
     </row>
     <row r="97">
@@ -2947,10 +2947,10 @@
         <v>594173481.4299999</v>
       </c>
       <c r="F98">
-        <v>74.65375980430034</v>
+        <v>74.65000000000001</v>
       </c>
       <c r="G98">
-        <v>174.6537598043003</v>
+        <v>174.65</v>
       </c>
     </row>
     <row r="99">
@@ -2974,10 +2974,10 @@
         <v>80604178.39</v>
       </c>
       <c r="F99">
-        <v>-86.43423496518061</v>
+        <v>-86.43000000000001</v>
       </c>
       <c r="G99">
-        <v>23.69311867952921</v>
+        <v>23.69</v>
       </c>
     </row>
     <row r="100">
@@ -3001,10 +3001,10 @@
         <v>79475867.20999999</v>
       </c>
       <c r="F100">
-        <v>-1.399817233469858</v>
+        <v>-1.4</v>
       </c>
       <c r="G100">
-        <v>23.3614583211067</v>
+        <v>23.36</v>
       </c>
     </row>
     <row r="101">
@@ -3028,10 +3028,10 @@
         <v>877554378.75</v>
       </c>
       <c r="F101">
-        <v>1004.177166675298</v>
+        <v>1004.18</v>
       </c>
       <c r="G101">
-        <v>257.9518885840265</v>
+        <v>257.95</v>
       </c>
     </row>
     <row r="102">
@@ -3079,10 +3079,10 @@
         <v>59491309937.29</v>
       </c>
       <c r="F103">
-        <v>0.1544130799252974</v>
+        <v>0.15</v>
       </c>
       <c r="G103">
-        <v>100.1544130799253</v>
+        <v>100.15</v>
       </c>
     </row>
     <row r="104">
@@ -3106,10 +3106,10 @@
         <v>57089002598.44</v>
       </c>
       <c r="F104">
-        <v>-4.038081093494627</v>
+        <v>-4.04</v>
       </c>
       <c r="G104">
-        <v>96.11009666104432</v>
+        <v>96.11</v>
       </c>
     </row>
     <row r="105">
@@ -3133,10 +3133,10 @@
         <v>59855452807.22</v>
       </c>
       <c r="F105">
-        <v>4.845854863219468</v>
+        <v>4.85</v>
       </c>
       <c r="G105">
-        <v>100.7674524541385</v>
+        <v>100.77</v>
       </c>
     </row>
     <row r="106">
@@ -3160,10 +3160,10 @@
         <v>71281214438.99001</v>
       </c>
       <c r="F106">
-        <v>19.08892355817544</v>
+        <v>19.09</v>
       </c>
       <c r="G106">
-        <v>120.0028744246298</v>
+        <v>120</v>
       </c>
     </row>
     <row r="107">
@@ -3211,10 +3211,10 @@
         <v>58760604596.18</v>
       </c>
       <c r="F108">
-        <v>0.2488776067330667</v>
+        <v>0.25</v>
       </c>
       <c r="G108">
-        <v>100.2488776067331</v>
+        <v>100.25</v>
       </c>
     </row>
     <row r="109">
@@ -3238,10 +3238,10 @@
         <v>56216036566.66</v>
       </c>
       <c r="F109">
-        <v>-4.330397971578082</v>
+        <v>-4.33</v>
       </c>
       <c r="G109">
-        <v>95.9077022443213</v>
+        <v>95.91</v>
       </c>
     </row>
     <row r="110">
@@ -3265,10 +3265,10 @@
         <v>58293990355.15</v>
       </c>
       <c r="F110">
-        <v>3.696371916981378</v>
+        <v>3.7</v>
       </c>
       <c r="G110">
-        <v>99.45280761630252</v>
+        <v>99.45</v>
       </c>
     </row>
     <row r="111">
@@ -3292,10 +3292,10 @@
         <v>69862398817.69</v>
       </c>
       <c r="F111">
-        <v>19.84494180628344</v>
+        <v>19.84</v>
       </c>
       <c r="G111">
-        <v>119.1891594124728</v>
+        <v>119.19</v>
       </c>
     </row>
     <row r="112">
@@ -3343,10 +3343,10 @@
         <v>58202556235.1</v>
       </c>
       <c r="F113">
-        <v>0.08286938788006903</v>
+        <v>0.08</v>
       </c>
       <c r="G113">
-        <v>100.0828693878801</v>
+        <v>100.08</v>
       </c>
     </row>
     <row r="114">
@@ -3370,10 +3370,10 @@
         <v>55712208069.17</v>
       </c>
       <c r="F114">
-        <v>-4.27876080883911</v>
+        <v>-4.28</v>
       </c>
       <c r="G114">
-        <v>95.80056279614982</v>
+        <v>95.8</v>
       </c>
     </row>
     <row r="115">
@@ -3397,10 +3397,10 @@
         <v>57863640203.62</v>
       </c>
       <c r="F115">
-        <v>3.861688863200108</v>
+        <v>3.86</v>
       </c>
       <c r="G115">
-        <v>99.50008246053177</v>
+        <v>99.5</v>
       </c>
     </row>
     <row r="116">
@@ -3424,10 +3424,10 @@
         <v>69295641918.78999</v>
       </c>
       <c r="F116">
-        <v>19.75679662555139</v>
+        <v>19.76</v>
       </c>
       <c r="G116">
-        <v>119.1581113945149</v>
+        <v>119.16</v>
       </c>
     </row>
     <row r="117">
@@ -3475,10 +3475,10 @@
         <v>730705341.11</v>
       </c>
       <c r="F118">
-        <v>-6.900332230291295</v>
+        <v>-6.9</v>
       </c>
       <c r="G118">
-        <v>93.0996677697087</v>
+        <v>93.09999999999999</v>
       </c>
     </row>
     <row r="119">
@@ -3502,10 +3502,10 @@
         <v>872966031.79</v>
       </c>
       <c r="F119">
-        <v>19.46895453971837</v>
+        <v>19.47</v>
       </c>
       <c r="G119">
-        <v>111.2251997644221</v>
+        <v>111.23</v>
       </c>
     </row>
     <row r="120">
@@ -3529,10 +3529,10 @@
         <v>1561462452.08</v>
       </c>
       <c r="F120">
-        <v>78.86863809331177</v>
+        <v>78.87</v>
       </c>
       <c r="G120">
-        <v>198.9470000351873</v>
+        <v>198.95</v>
       </c>
     </row>
     <row r="121">
@@ -3556,10 +3556,10 @@
         <v>1418815621.3</v>
       </c>
       <c r="F121">
-        <v>-9.135463397789835</v>
+        <v>-9.140000000000001</v>
       </c>
       <c r="G121">
-        <v>180.7722696659718</v>
+        <v>180.77</v>
       </c>
     </row>
     <row r="122">
@@ -3607,10 +3607,10 @@
         <v>558048361.08</v>
       </c>
       <c r="F123">
-        <v>21.21957193780904</v>
+        <v>21.22</v>
       </c>
       <c r="G123">
-        <v>121.219571937809</v>
+        <v>121.22</v>
       </c>
     </row>
     <row r="124">
@@ -3634,10 +3634,10 @@
         <v>503828497.48</v>
       </c>
       <c r="F124">
-        <v>-9.71597936334182</v>
+        <v>-9.720000000000001</v>
       </c>
       <c r="G124">
-        <v>109.4419033440002</v>
+        <v>109.44</v>
       </c>
     </row>
     <row r="125">
@@ -3661,10 +3661,10 @@
         <v>430350151.53</v>
       </c>
       <c r="F125">
-        <v>-14.58399957872903</v>
+        <v>-14.58</v>
       </c>
       <c r="G125">
-        <v>93.48089662135818</v>
+        <v>93.48</v>
       </c>
     </row>
     <row r="126">
@@ -3688,10 +3688,10 @@
         <v>566756898.9</v>
       </c>
       <c r="F126">
-        <v>31.69668858836012</v>
+        <v>31.7</v>
       </c>
       <c r="G126">
-        <v>123.1112453130369</v>
+        <v>123.11</v>
       </c>
     </row>
     <row r="127">
@@ -3739,10 +3739,10 @@
         <v>33783674299.06</v>
       </c>
       <c r="F128">
-        <v>-1.349000575824488</v>
+        <v>-1.35</v>
       </c>
       <c r="G128">
-        <v>98.65099942417551</v>
+        <v>98.65000000000001</v>
       </c>
     </row>
     <row r="129">
@@ -3766,10 +3766,10 @@
         <v>33222611098.75</v>
       </c>
       <c r="F129">
-        <v>-1.660752454997505</v>
+        <v>-1.66</v>
       </c>
       <c r="G129">
-        <v>97.01265052935895</v>
+        <v>97.01000000000001</v>
       </c>
     </row>
     <row r="130">
@@ -3793,10 +3793,10 @@
         <v>34794428828.57</v>
       </c>
       <c r="F130">
-        <v>4.73116855610165</v>
+        <v>4.73</v>
       </c>
       <c r="G130">
-        <v>101.6024825466448</v>
+        <v>101.6</v>
       </c>
     </row>
     <row r="131">
@@ -3820,10 +3820,10 @@
         <v>34591952851.53</v>
       </c>
       <c r="F131">
-        <v>-0.5819206805709798</v>
+        <v>-0.58</v>
       </c>
       <c r="G131">
-        <v>101.0112366887323</v>
+        <v>101.01</v>
       </c>
     </row>
     <row r="132">
@@ -3871,10 +3871,10 @@
         <v>32744916006.84</v>
       </c>
       <c r="F133">
-        <v>-2.270613750956629</v>
+        <v>-2.27</v>
       </c>
       <c r="G133">
-        <v>97.72938624904337</v>
+        <v>97.73</v>
       </c>
     </row>
     <row r="134">
@@ -3898,10 +3898,10 @@
         <v>31851285221.98</v>
       </c>
       <c r="F134">
-        <v>-2.729067268559593</v>
+        <v>-2.73</v>
       </c>
       <c r="G134">
-        <v>95.06228555715654</v>
+        <v>95.06</v>
       </c>
     </row>
     <row r="135">
@@ -3925,10 +3925,10 @@
         <v>32883500889.8</v>
       </c>
       <c r="F135">
-        <v>3.240734747832685</v>
+        <v>3.24</v>
       </c>
       <c r="G135">
-        <v>98.14300207729126</v>
+        <v>98.14</v>
       </c>
     </row>
     <row r="136">
@@ -3952,10 +3952,10 @@
         <v>33521314266.78</v>
       </c>
       <c r="F136">
-        <v>1.93961518610033</v>
+        <v>1.94</v>
       </c>
       <c r="G136">
-        <v>100.0465986496772</v>
+        <v>100.05</v>
       </c>
     </row>
     <row r="137">
@@ -4003,10 +4003,10 @@
         <v>32398439853.65</v>
       </c>
       <c r="F138">
-        <v>-2.359653970440634</v>
+        <v>-2.36</v>
       </c>
       <c r="G138">
-        <v>97.64034602955937</v>
+        <v>97.64</v>
       </c>
     </row>
     <row r="139">
@@ -4030,10 +4030,10 @@
         <v>31602678196.31</v>
       </c>
       <c r="F139">
-        <v>-2.456172769227805</v>
+        <v>-2.46</v>
       </c>
       <c r="G139">
-        <v>95.24213043860152</v>
+        <v>95.23999999999999</v>
       </c>
     </row>
     <row r="140">
@@ -4057,10 +4057,10 @@
         <v>32615392537.37</v>
       </c>
       <c r="F140">
-        <v>3.204520625654572</v>
+        <v>3.2</v>
       </c>
       <c r="G140">
-        <v>98.29418415281934</v>
+        <v>98.29000000000001</v>
       </c>
     </row>
     <row r="141">
@@ -4084,10 +4084,10 @@
         <v>33370511346.92</v>
       </c>
       <c r="F141">
-        <v>2.315222202782929</v>
+        <v>2.32</v>
       </c>
       <c r="G141">
-        <v>100.5699129283698</v>
+        <v>100.57</v>
       </c>
     </row>
     <row r="142">
@@ -4135,10 +4135,10 @@
         <v>1038758292.22</v>
       </c>
       <c r="F143">
-        <v>40.38275315160813</v>
+        <v>40.38</v>
       </c>
       <c r="G143">
-        <v>140.3827531516081</v>
+        <v>140.38</v>
       </c>
     </row>
     <row r="144">
@@ -4162,10 +4162,10 @@
         <v>1371325876.77</v>
       </c>
       <c r="F144">
-        <v>32.01587771099737</v>
+        <v>32.02</v>
       </c>
       <c r="G144">
-        <v>185.3275237279583</v>
+        <v>185.33</v>
       </c>
     </row>
     <row r="145">
@@ -4189,10 +4189,10 @@
         <v>1910927938.77</v>
       </c>
       <c r="F145">
-        <v>39.34893019527716</v>
+        <v>39.35</v>
       </c>
       <c r="G145">
-        <v>258.2519216723083</v>
+        <v>258.25</v>
       </c>
     </row>
     <row r="146">
@@ -4216,10 +4216,10 @@
         <v>1070638584.75</v>
       </c>
       <c r="F146">
-        <v>-43.97284361025492</v>
+        <v>-43.97</v>
       </c>
       <c r="G146">
-        <v>144.6912080348662</v>
+        <v>144.69</v>
       </c>
     </row>
     <row r="147">
@@ -4267,10 +4267,10 @@
         <v>346476153.19</v>
       </c>
       <c r="F148">
-        <v>6.839860219870042</v>
+        <v>6.84</v>
       </c>
       <c r="G148">
-        <v>106.83986021987</v>
+        <v>106.84</v>
       </c>
     </row>
     <row r="149">
@@ -4294,10 +4294,10 @@
         <v>248607025.67</v>
       </c>
       <c r="F149">
-        <v>-28.24700246147408</v>
+        <v>-28.25</v>
       </c>
       <c r="G149">
-        <v>76.66080227372788</v>
+        <v>76.66</v>
       </c>
     </row>
     <row r="150">
@@ -4321,10 +4321,10 @@
         <v>268108352.43</v>
       </c>
       <c r="F150">
-        <v>7.844237992648684</v>
+        <v>7.84</v>
       </c>
       <c r="G150">
-        <v>82.67425805115293</v>
+        <v>82.67</v>
       </c>
     </row>
     <row r="151">
@@ -4348,10 +4348,10 @@
         <v>150802919.86</v>
       </c>
       <c r="F151">
-        <v>-43.75299445422055</v>
+        <v>-43.75</v>
       </c>
       <c r="G151">
-        <v>46.501794510964</v>
+        <v>46.5</v>
       </c>
     </row>
     <row r="152">
@@ -4399,10 +4399,10 @@
         <v>30312717138.31</v>
       </c>
       <c r="F153">
-        <v>-3.846803745931415</v>
+        <v>-3.85</v>
       </c>
       <c r="G153">
-        <v>96.15319625406859</v>
+        <v>96.15000000000001</v>
       </c>
     </row>
     <row r="154">
@@ -4426,10 +4426,10 @@
         <v>29567051180.09</v>
       </c>
       <c r="F154">
-        <v>-2.459911313188123</v>
+        <v>-2.46</v>
       </c>
       <c r="G154">
-        <v>93.78791290142277</v>
+        <v>93.79000000000001</v>
       </c>
     </row>
     <row r="155">
@@ -4453,10 +4453,10 @@
         <v>31237754419.67</v>
       </c>
       <c r="F155">
-        <v>5.650557539214551</v>
+        <v>5.65</v>
       </c>
       <c r="G155">
-        <v>99.0874528847461</v>
+        <v>99.09</v>
       </c>
     </row>
     <row r="156">
@@ -4480,10 +4480,10 @@
         <v>33947296845.17</v>
       </c>
       <c r="F156">
-        <v>8.673934717259435</v>
+        <v>8.67</v>
       </c>
       <c r="G156">
-        <v>107.6822338609642</v>
+        <v>107.68</v>
       </c>
     </row>
     <row r="157">
@@ -4531,10 +4531,10 @@
         <v>29026798265.84</v>
       </c>
       <c r="F158">
-        <v>-3.737670305938356</v>
+        <v>-3.74</v>
       </c>
       <c r="G158">
-        <v>96.26232969406165</v>
+        <v>96.26000000000001</v>
       </c>
     </row>
     <row r="159">
@@ -4558,10 +4558,10 @@
         <v>28210306220.92</v>
       </c>
       <c r="F159">
-        <v>-2.812890479488006</v>
+        <v>-2.81</v>
       </c>
       <c r="G159">
-        <v>93.55457578676403</v>
+        <v>93.55</v>
       </c>
     </row>
     <row r="160">
@@ -4585,10 +4585,10 @@
         <v>29341849401.8</v>
       </c>
       <c r="F160">
-        <v>4.011098539727587</v>
+        <v>4.01</v>
       </c>
       <c r="G160">
-        <v>97.30714200999526</v>
+        <v>97.31</v>
       </c>
     </row>
     <row r="161">
@@ -4612,10 +4612,10 @@
         <v>32518512096.87</v>
       </c>
       <c r="F161">
-        <v>10.82638879223177</v>
+        <v>10.83</v>
       </c>
       <c r="G161">
-        <v>107.8419915266064</v>
+        <v>107.84</v>
       </c>
     </row>
     <row r="162">
@@ -4663,10 +4663,10 @@
         <v>27631394082.73</v>
       </c>
       <c r="F163">
-        <v>-2.803245911654861</v>
+        <v>-2.8</v>
       </c>
       <c r="G163">
-        <v>97.19675408834514</v>
+        <v>97.2</v>
       </c>
     </row>
     <row r="164">
@@ -4690,10 +4690,10 @@
         <v>26875800764.4</v>
       </c>
       <c r="F164">
-        <v>-2.734546494714341</v>
+        <v>-2.73</v>
       </c>
       <c r="G164">
-        <v>94.53886365644618</v>
+        <v>94.54000000000001</v>
       </c>
     </row>
     <row r="165">
@@ -4717,10 +4717,10 @@
         <v>28041066780.09</v>
       </c>
       <c r="F165">
-        <v>4.335744359414684</v>
+        <v>4.34</v>
       </c>
       <c r="G165">
-        <v>98.63782710488528</v>
+        <v>98.64</v>
       </c>
     </row>
     <row r="166">
@@ -4744,10 +4744,10 @@
         <v>31124845441.59</v>
       </c>
       <c r="F166">
-        <v>10.99736570539311</v>
+        <v>11</v>
       </c>
       <c r="G166">
-        <v>109.4853896754629</v>
+        <v>109.49</v>
       </c>
     </row>
     <row r="167">
@@ -4795,10 +4795,10 @@
         <v>1285918872.47</v>
       </c>
       <c r="F168">
-        <v>-6.246059642428325</v>
+        <v>-6.25</v>
       </c>
       <c r="G168">
-        <v>93.75394035757168</v>
+        <v>93.75</v>
       </c>
     </row>
     <row r="169">
@@ -4822,10 +4822,10 @@
         <v>1356744959.17</v>
       </c>
       <c r="F169">
-        <v>5.507819211328391</v>
+        <v>5.51</v>
       </c>
       <c r="G169">
-        <v>98.91773789596337</v>
+        <v>98.92</v>
       </c>
     </row>
     <row r="170">
@@ -4849,10 +4849,10 @@
         <v>1895905017.87</v>
       </c>
       <c r="F170">
-        <v>39.73923433847402</v>
+        <v>39.74</v>
       </c>
       <c r="G170">
-        <v>138.2268895607578</v>
+        <v>138.23</v>
       </c>
     </row>
     <row r="171">
@@ -4876,10 +4876,10 @@
         <v>1428784748.3</v>
       </c>
       <c r="F171">
-        <v>-24.63837930524586</v>
+        <v>-24.64</v>
       </c>
       <c r="G171">
-        <v>104.170024208935</v>
+        <v>104.17</v>
       </c>
     </row>
     <row r="172">
@@ -4927,10 +4927,10 @@
         <v>1395403056.76</v>
       </c>
       <c r="F173">
-        <v>-19.13022735693671</v>
+        <v>-19.13</v>
       </c>
       <c r="G173">
-        <v>80.86977264306329</v>
+        <v>80.87</v>
       </c>
     </row>
     <row r="174">
@@ -4954,10 +4954,10 @@
         <v>1334196618.05</v>
       </c>
       <c r="F174">
-        <v>-4.386291001262088</v>
+        <v>-4.39</v>
       </c>
       <c r="G174">
-        <v>77.32258908287949</v>
+        <v>77.31999999999999</v>
       </c>
     </row>
     <row r="175">
@@ -4981,10 +4981,10 @@
         <v>1300782621.71</v>
       </c>
       <c r="F175">
-        <v>-2.504428199558495</v>
+        <v>-2.5</v>
       </c>
       <c r="G175">
-        <v>75.38610035725912</v>
+        <v>75.39</v>
       </c>
     </row>
     <row r="176">
@@ -5008,10 +5008,10 @@
         <v>1393666655.28</v>
       </c>
       <c r="F176">
-        <v>7.140626882598977</v>
+        <v>7.14</v>
       </c>
       <c r="G176">
-        <v>80.76914050511262</v>
+        <v>80.77</v>
       </c>
     </row>
     <row r="177">
@@ -5059,10 +5059,10 @@
         <v>20462247583.94</v>
       </c>
       <c r="F178">
-        <v>0.04181401135217033</v>
+        <v>0.04</v>
       </c>
       <c r="G178">
-        <v>100.0418140113522</v>
+        <v>100.04</v>
       </c>
     </row>
     <row r="179">
@@ -5086,10 +5086,10 @@
         <v>20604185984.06</v>
       </c>
       <c r="F179">
-        <v>0.6936598706361208</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="G179">
-        <v>100.7357639290053</v>
+        <v>100.74</v>
       </c>
     </row>
     <row r="180">
@@ -5113,10 +5113,10 @@
         <v>19847758333.06</v>
       </c>
       <c r="F180">
-        <v>-3.671232882411346</v>
+        <v>-3.67</v>
       </c>
       <c r="G180">
-        <v>97.03751943929542</v>
+        <v>97.04000000000001</v>
       </c>
     </row>
     <row r="181">
@@ -5140,10 +5140,10 @@
         <v>22785645317.67</v>
       </c>
       <c r="F181">
-        <v>14.80210981668604</v>
+        <v>14.8</v>
       </c>
       <c r="G181">
-        <v>111.401119630088</v>
+        <v>111.4</v>
       </c>
     </row>
     <row r="182">
@@ -5191,10 +5191,10 @@
         <v>19932913285.82</v>
       </c>
       <c r="F183">
-        <v>0.7372627920359198</v>
+        <v>0.74</v>
       </c>
       <c r="G183">
-        <v>100.7372627920359</v>
+        <v>100.74</v>
       </c>
     </row>
     <row r="184">
@@ -5218,10 +5218,10 @@
         <v>19629332721.23</v>
       </c>
       <c r="F184">
-        <v>-1.523011514859507</v>
+        <v>-1.52</v>
       </c>
       <c r="G184">
-        <v>99.20302267995893</v>
+        <v>99.2</v>
       </c>
     </row>
     <row r="185">
@@ -5245,10 +5245,10 @@
         <v>18733211743.73</v>
       </c>
       <c r="F185">
-        <v>-4.565213653599165</v>
+        <v>-4.57</v>
       </c>
       <c r="G185">
-        <v>94.67419274379037</v>
+        <v>94.67</v>
       </c>
     </row>
     <row r="186">
@@ -5272,10 +5272,10 @@
         <v>21524275579.16</v>
       </c>
       <c r="F186">
-        <v>14.89901397374729</v>
+        <v>14.9</v>
       </c>
       <c r="G186">
-        <v>108.7797139502201</v>
+        <v>108.78</v>
       </c>
     </row>
     <row r="187">
@@ -5323,10 +5323,10 @@
         <v>19598274984.25</v>
       </c>
       <c r="F188">
-        <v>0.410604785362878</v>
+        <v>0.41</v>
       </c>
       <c r="G188">
-        <v>100.4106047853629</v>
+        <v>100.41</v>
       </c>
     </row>
     <row r="189">
@@ -5350,10 +5350,10 @@
         <v>19401176296.14</v>
       </c>
       <c r="F189">
-        <v>-1.005694063729579</v>
+        <v>-1.01</v>
       </c>
       <c r="G189">
-        <v>99.40078129368152</v>
+        <v>99.40000000000001</v>
       </c>
     </row>
     <row r="190">
@@ -5377,10 +5377,10 @@
         <v>18282334880.55</v>
       </c>
       <c r="F190">
-        <v>-5.766874124083921</v>
+        <v>-5.77</v>
       </c>
       <c r="G190">
-        <v>93.66846335811894</v>
+        <v>93.67</v>
       </c>
     </row>
     <row r="191">
@@ -5404,10 +5404,10 @@
         <v>20738294575.05</v>
       </c>
       <c r="F191">
-        <v>13.43351224308236</v>
+        <v>13.43</v>
       </c>
       <c r="G191">
-        <v>106.251427851239</v>
+        <v>106.25</v>
       </c>
     </row>
     <row r="192">
@@ -5455,10 +5455,10 @@
         <v>529334298.12</v>
       </c>
       <c r="F193">
-        <v>-20.59956197559093</v>
+        <v>-20.6</v>
       </c>
       <c r="G193">
-        <v>79.40043802440907</v>
+        <v>79.40000000000001</v>
       </c>
     </row>
     <row r="194">
@@ -5482,10 +5482,10 @@
         <v>974853262.83</v>
       </c>
       <c r="F194">
-        <v>84.16589786309312</v>
+        <v>84.17</v>
       </c>
       <c r="G194">
-        <v>146.2285295948818</v>
+        <v>146.23</v>
       </c>
     </row>
     <row r="195">
@@ -5509,10 +5509,10 @@
         <v>1114546589.33</v>
       </c>
       <c r="F195">
-        <v>14.32967727824699</v>
+        <v>14.33</v>
       </c>
       <c r="G195">
-        <v>167.1826059745542</v>
+        <v>167.18</v>
       </c>
     </row>
     <row r="196">
@@ -5536,10 +5536,10 @@
         <v>1261369738.51</v>
       </c>
       <c r="F196">
-        <v>13.17335233767676</v>
+        <v>13.17</v>
       </c>
       <c r="G196">
-        <v>189.2061597068921</v>
+        <v>189.21</v>
       </c>
     </row>
     <row r="197">
@@ -5587,10 +5587,10 @@
         <v>334638301.57</v>
       </c>
       <c r="F198">
-        <v>24.44791829818282</v>
+        <v>24.45</v>
       </c>
       <c r="G198">
-        <v>124.4479182981828</v>
+        <v>124.45</v>
       </c>
     </row>
     <row r="199">
@@ -5614,10 +5614,10 @@
         <v>228156425.09</v>
       </c>
       <c r="F199">
-        <v>-31.81999071248752</v>
+        <v>-31.82</v>
       </c>
       <c r="G199">
-        <v>84.84860225381698</v>
+        <v>84.84999999999999</v>
       </c>
     </row>
     <row r="200">
@@ -5641,10 +5641,10 @@
         <v>450876863.17</v>
       </c>
       <c r="F200">
-        <v>97.61742979280304</v>
+        <v>97.62</v>
       </c>
       <c r="G200">
-        <v>167.6756269891115</v>
+        <v>167.68</v>
       </c>
     </row>
     <row r="201">
@@ -5668,10 +5668,10 @@
         <v>785981004.11</v>
       </c>
       <c r="F201">
-        <v>74.32276266827454</v>
+        <v>74.31999999999999</v>
       </c>
       <c r="G201">
-        <v>292.2967852887701</v>
+        <v>292.3</v>
       </c>
     </row>
     <row r="202">
@@ -5719,10 +5719,10 @@
         <v>35866328605.06</v>
       </c>
       <c r="F203">
-        <v>9.496019249698652</v>
+        <v>9.5</v>
       </c>
       <c r="G203">
-        <v>109.4960192496986</v>
+        <v>109.5</v>
       </c>
     </row>
     <row r="204">
@@ -5746,10 +5746,10 @@
         <v>33693592967.82</v>
       </c>
       <c r="F204">
-        <v>-6.057870213494532</v>
+        <v>-6.06</v>
       </c>
       <c r="G204">
-        <v>102.8628925146089</v>
+        <v>102.86</v>
       </c>
     </row>
     <row r="205">
@@ -5773,10 +5773,10 @@
         <v>36008241197.05</v>
       </c>
       <c r="F205">
-        <v>6.869698436259597</v>
+        <v>6.87</v>
       </c>
       <c r="G205">
-        <v>109.9292630331764</v>
+        <v>109.93</v>
       </c>
     </row>
     <row r="206">
@@ -5800,10 +5800,10 @@
         <v>38761193279.08</v>
       </c>
       <c r="F206">
-        <v>7.645338929399137</v>
+        <v>7.65</v>
       </c>
       <c r="G206">
-        <v>118.3337277746534</v>
+        <v>118.33</v>
       </c>
     </row>
     <row r="207">
@@ -5851,10 +5851,10 @@
         <v>35021857825.18</v>
       </c>
       <c r="F208">
-        <v>9.960219092809908</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="G208">
-        <v>109.9602190928099</v>
+        <v>109.96</v>
       </c>
     </row>
     <row r="209">
@@ -5878,10 +5878,10 @@
         <v>32965651378.79</v>
       </c>
       <c r="F209">
-        <v>-5.871208936584827</v>
+        <v>-5.87</v>
       </c>
       <c r="G209">
-        <v>103.5042248827446</v>
+        <v>103.5</v>
       </c>
     </row>
     <row r="210">
@@ -5905,10 +5905,10 @@
         <v>32491091755.25</v>
       </c>
       <c r="F210">
-        <v>-1.43955785398292</v>
+        <v>-1.44</v>
       </c>
       <c r="G210">
-        <v>102.0142216842409</v>
+        <v>102.01</v>
       </c>
     </row>
     <row r="211">
@@ -5932,10 +5932,10 @@
         <v>37248337432.95</v>
       </c>
       <c r="F211">
-        <v>14.64169229380021</v>
+        <v>14.64</v>
       </c>
       <c r="G211">
-        <v>116.9508301191627</v>
+        <v>116.95</v>
       </c>
     </row>
     <row r="212">
@@ -5983,10 +5983,10 @@
         <v>33289863088.54</v>
       </c>
       <c r="F213">
-        <v>13.33658444283714</v>
+        <v>13.34</v>
       </c>
       <c r="G213">
-        <v>113.3365844428371</v>
+        <v>113.34</v>
       </c>
     </row>
     <row r="214">
@@ -6010,10 +6010,10 @@
         <v>30261491747.08</v>
       </c>
       <c r="F214">
-        <v>-9.096977459491306</v>
+        <v>-9.1</v>
       </c>
       <c r="G214">
-        <v>103.0263809027149</v>
+        <v>103.03</v>
       </c>
     </row>
     <row r="215">
@@ -6037,10 +6037,10 @@
         <v>32303672017.55</v>
       </c>
       <c r="F215">
-        <v>6.748445474989029</v>
+        <v>6.75</v>
       </c>
       <c r="G215">
-        <v>109.9790600427891</v>
+        <v>109.98</v>
       </c>
     </row>
     <row r="216">
@@ -6064,10 +6064,10 @@
         <v>37123320052.08</v>
       </c>
       <c r="F216">
-        <v>14.91981478734545</v>
+        <v>14.92</v>
       </c>
       <c r="G216">
-        <v>126.3877321060367</v>
+        <v>126.39</v>
       </c>
     </row>
     <row r="217">
@@ -6115,10 +6115,10 @@
         <v>844470779.87</v>
       </c>
       <c r="F218">
-        <v>-6.817840286978449</v>
+        <v>-6.82</v>
       </c>
       <c r="G218">
-        <v>93.18215971302155</v>
+        <v>93.18000000000001</v>
       </c>
     </row>
     <row r="219">
@@ -6142,10 +6142,10 @@
         <v>727941589.03</v>
       </c>
       <c r="F219">
-        <v>-13.79907909400238</v>
+        <v>-13.8</v>
       </c>
       <c r="G219">
-        <v>80.32387979272208</v>
+        <v>80.31999999999999</v>
       </c>
     </row>
     <row r="220">
@@ -6169,10 +6169,10 @@
         <v>3517149441.81</v>
       </c>
       <c r="F220">
-        <v>383.1636898912024</v>
+        <v>383.16</v>
       </c>
       <c r="G220">
-        <v>388.0958214702899</v>
+        <v>388.1</v>
       </c>
     </row>
     <row r="221">
@@ -6196,10 +6196,10 @@
         <v>1512855846.13</v>
       </c>
       <c r="F221">
-        <v>-56.98630748679668</v>
+        <v>-56.99</v>
       </c>
       <c r="G221">
-        <v>166.934343303821</v>
+        <v>166.93</v>
       </c>
     </row>
     <row r="222">
@@ -6247,10 +6247,10 @@
         <v>1731994736.64</v>
       </c>
       <c r="F223">
-        <v>-30.07705298927408</v>
+        <v>-30.08</v>
       </c>
       <c r="G223">
-        <v>69.92294701072592</v>
+        <v>69.92</v>
       </c>
     </row>
     <row r="224">
@@ -6274,10 +6274,10 @@
         <v>2704159631.71</v>
       </c>
       <c r="F224">
-        <v>56.12978345164954</v>
+        <v>56.13</v>
       </c>
       <c r="G224">
-        <v>109.170545750858</v>
+        <v>109.17</v>
       </c>
     </row>
     <row r="225">
@@ -6301,10 +6301,10 @@
         <v>187419737.7</v>
       </c>
       <c r="F225">
-        <v>-93.06920584486784</v>
+        <v>-93.06999999999999</v>
       </c>
       <c r="G225">
-        <v>7.566385804026347</v>
+        <v>7.57</v>
       </c>
     </row>
     <row r="226">
@@ -6328,10 +6328,10 @@
         <v>125017380.87</v>
       </c>
       <c r="F226">
-        <v>-33.29550963831063</v>
+        <v>-33.3</v>
       </c>
       <c r="G226">
-        <v>5.047119089374988</v>
+        <v>5.05</v>
       </c>
     </row>
     <row r="227">
@@ -6379,10 +6379,10 @@
         <v>20604240734.83</v>
       </c>
       <c r="F228">
-        <v>-15.75795289958242</v>
+        <v>-15.76</v>
       </c>
       <c r="G228">
-        <v>84.24204710041758</v>
+        <v>84.23999999999999</v>
       </c>
     </row>
     <row r="229">
@@ -6406,10 +6406,10 @@
         <v>20892329646.88</v>
       </c>
       <c r="F229">
-        <v>1.398202029172602</v>
+        <v>1.4</v>
       </c>
       <c r="G229">
-        <v>85.41992111239216</v>
+        <v>85.42</v>
       </c>
     </row>
     <row r="230">
@@ -6433,10 +6433,10 @@
         <v>22400230964.52</v>
       </c>
       <c r="F230">
-        <v>7.217487676704293</v>
+        <v>7.22</v>
       </c>
       <c r="G230">
-        <v>91.58509339212959</v>
+        <v>91.59</v>
       </c>
     </row>
     <row r="231">
@@ -6460,10 +6460,10 @@
         <v>23839666281.81</v>
       </c>
       <c r="F231">
-        <v>6.42598426583163</v>
+        <v>6.43</v>
       </c>
       <c r="G231">
-        <v>97.47033708335505</v>
+        <v>97.47</v>
       </c>
     </row>
     <row r="232">
@@ -6511,10 +6511,10 @@
         <v>19702758995.8</v>
       </c>
       <c r="F233">
-        <v>-17.87207037095946</v>
+        <v>-17.87</v>
       </c>
       <c r="G233">
-        <v>82.12792962904054</v>
+        <v>82.13</v>
       </c>
     </row>
     <row r="234">
@@ -6538,10 +6538,10 @@
         <v>20062023632.01</v>
       </c>
       <c r="F234">
-        <v>1.823422985007239</v>
+        <v>1.82</v>
       </c>
       <c r="G234">
-        <v>83.62546917500704</v>
+        <v>83.63</v>
       </c>
     </row>
     <row r="235">
@@ -6565,10 +6565,10 @@
         <v>21320079049.02</v>
       </c>
       <c r="F235">
-        <v>6.270830102117464</v>
+        <v>6.27</v>
       </c>
       <c r="G235">
-        <v>88.86948026907035</v>
+        <v>88.87</v>
       </c>
     </row>
     <row r="236">
@@ -6592,10 +6592,10 @@
         <v>23358019642.22</v>
       </c>
       <c r="F236">
-        <v>9.558785352128773</v>
+        <v>9.56</v>
       </c>
       <c r="G236">
-        <v>97.3643231315432</v>
+        <v>97.36</v>
       </c>
     </row>
     <row r="237">
@@ -6643,10 +6643,10 @@
         <v>18788164140.79</v>
       </c>
       <c r="F238">
-        <v>-17.55579180827471</v>
+        <v>-17.56</v>
       </c>
       <c r="G238">
-        <v>82.44420819172529</v>
+        <v>82.44</v>
       </c>
     </row>
     <row r="239">
@@ -6670,10 +6670,10 @@
         <v>19551763349.55</v>
       </c>
       <c r="F239">
-        <v>4.064256640712371</v>
+        <v>4.06</v>
       </c>
       <c r="G239">
-        <v>85.79495239804021</v>
+        <v>85.79000000000001</v>
       </c>
     </row>
     <row r="240">
@@ -6697,10 +6697,10 @@
         <v>20566884643.9</v>
       </c>
       <c r="F240">
-        <v>5.191967988776658</v>
+        <v>5.19</v>
       </c>
       <c r="G240">
-        <v>90.24939886253264</v>
+        <v>90.25</v>
       </c>
     </row>
     <row r="241">
@@ -6724,10 +6724,10 @@
         <v>22794759909.83</v>
       </c>
       <c r="F241">
-        <v>10.83234191519022</v>
+        <v>10.83</v>
       </c>
       <c r="G241">
-        <v>100.025522323726</v>
+        <v>100.03</v>
       </c>
     </row>
     <row r="242">
@@ -6775,10 +6775,10 @@
         <v>901481739.03</v>
       </c>
       <c r="F243">
-        <v>92.60219210949545</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="G243">
-        <v>192.6021921094955</v>
+        <v>192.6</v>
       </c>
     </row>
     <row r="244">
@@ -6802,10 +6802,10 @@
         <v>830306014.88</v>
       </c>
       <c r="F244">
-        <v>-7.895414967205605</v>
+        <v>-7.9</v>
       </c>
       <c r="G244">
-        <v>177.3954498065162</v>
+        <v>177.4</v>
       </c>
     </row>
     <row r="245">
@@ -6829,10 +6829,10 @@
         <v>1080151915.49</v>
       </c>
       <c r="F245">
-        <v>30.09082147214228</v>
+        <v>30.09</v>
       </c>
       <c r="G245">
-        <v>230.7751979074988</v>
+        <v>230.78</v>
       </c>
     </row>
     <row r="246">
@@ -6856,10 +6856,10 @@
         <v>481646639.59</v>
       </c>
       <c r="F246">
-        <v>-55.4093611571752</v>
+        <v>-55.41</v>
       </c>
       <c r="G246">
-        <v>102.904135037747</v>
+        <v>102.9</v>
       </c>
     </row>
     <row r="247">
@@ -6907,10 +6907,10 @@
         <v>914594855.01</v>
       </c>
       <c r="F248">
-        <v>-23.87153209034624</v>
+        <v>-23.87</v>
       </c>
       <c r="G248">
-        <v>76.12846790965376</v>
+        <v>76.13</v>
       </c>
     </row>
     <row r="249">
@@ -6934,10 +6934,10 @@
         <v>510260282.46</v>
       </c>
       <c r="F249">
-        <v>-44.20914575837834</v>
+        <v>-44.21</v>
       </c>
       <c r="G249">
-        <v>42.47272256785465</v>
+        <v>42.47</v>
       </c>
     </row>
     <row r="250">
@@ -6961,10 +6961,10 @@
         <v>753194405.12</v>
       </c>
       <c r="F250">
-        <v>47.60984364465875</v>
+        <v>47.61</v>
       </c>
       <c r="G250">
-        <v>62.69391937403993</v>
+        <v>62.69</v>
       </c>
     </row>
     <row r="251">
@@ -6988,10 +6988,10 @@
         <v>563259732.39</v>
       </c>
       <c r="F251">
-        <v>-25.21721768495338</v>
+        <v>-25.22</v>
       </c>
       <c r="G251">
-        <v>46.88425725025913</v>
+        <v>46.88</v>
       </c>
     </row>
     <row r="252">
@@ -7039,10 +7039,10 @@
         <v>24185708898.14</v>
       </c>
       <c r="F253">
-        <v>2.000517983666494</v>
+        <v>2</v>
       </c>
       <c r="G253">
-        <v>102.0005179836665</v>
+        <v>102</v>
       </c>
     </row>
     <row r="254">
@@ -7066,10 +7066,10 @@
         <v>23184284611.09</v>
       </c>
       <c r="F254">
-        <v>-4.140562061949793</v>
+        <v>-4.14</v>
       </c>
       <c r="G254">
-        <v>97.77712323304253</v>
+        <v>97.78</v>
       </c>
     </row>
     <row r="255">
@@ -7093,10 +7093,10 @@
         <v>27776819932.08</v>
       </c>
       <c r="F255">
-        <v>19.80882911864015</v>
+        <v>19.81</v>
       </c>
       <c r="G255">
-        <v>117.1456264913981</v>
+        <v>117.15</v>
       </c>
     </row>
     <row r="256">
@@ -7120,10 +7120,10 @@
         <v>33254548205.77</v>
       </c>
       <c r="F256">
-        <v>19.72050179640492</v>
+        <v>19.72</v>
       </c>
       <c r="G256">
-        <v>140.2473318680441</v>
+        <v>140.25</v>
       </c>
     </row>
     <row r="257">
@@ -7171,10 +7171,10 @@
         <v>23424444755.92</v>
       </c>
       <c r="F258">
-        <v>3.161580629681704</v>
+        <v>3.16</v>
       </c>
       <c r="G258">
-        <v>103.1615806296817</v>
+        <v>103.16</v>
       </c>
     </row>
     <row r="259">
@@ -7198,10 +7198,10 @@
         <v>21982143443.4</v>
       </c>
       <c r="F259">
-        <v>-6.157248667144977</v>
+        <v>-6.16</v>
       </c>
       <c r="G259">
-        <v>96.80966558135495</v>
+        <v>96.81</v>
       </c>
     </row>
     <row r="260">
@@ -7225,10 +7225,10 @@
         <v>24154088248.26</v>
       </c>
       <c r="F260">
-        <v>9.880496005552676</v>
+        <v>9.880000000000001</v>
       </c>
       <c r="G260">
-        <v>106.3749407221096</v>
+        <v>106.37</v>
       </c>
     </row>
     <row r="261">
@@ -7252,10 +7252,10 @@
         <v>29196811244.07</v>
       </c>
       <c r="F261">
-        <v>20.87730633414932</v>
+        <v>20.88</v>
       </c>
       <c r="G261">
-        <v>128.5831629594342</v>
+        <v>128.58</v>
       </c>
     </row>
     <row r="262">
@@ -7303,10 +7303,10 @@
         <v>21626856727.05</v>
       </c>
       <c r="F263">
-        <v>8.817609579270291</v>
+        <v>8.82</v>
       </c>
       <c r="G263">
-        <v>108.8176095792703</v>
+        <v>108.82</v>
       </c>
     </row>
     <row r="264">
@@ -7330,10 +7330,10 @@
         <v>21610226736.45</v>
       </c>
       <c r="F264">
-        <v>-0.07689508840735826</v>
+        <v>-0.08</v>
       </c>
       <c r="G264">
-        <v>108.7339341821815</v>
+        <v>108.73</v>
       </c>
     </row>
     <row r="265">
@@ -7357,10 +7357,10 @@
         <v>23860346853.59</v>
       </c>
       <c r="F265">
-        <v>10.41229296009523</v>
+        <v>10.41</v>
       </c>
       <c r="G265">
-        <v>120.0556299562674</v>
+        <v>120.06</v>
       </c>
     </row>
     <row r="266">
@@ -7384,10 +7384,10 @@
         <v>28953794932.32</v>
       </c>
       <c r="F266">
-        <v>21.34691549114529</v>
+        <v>21.35</v>
       </c>
       <c r="G266">
-        <v>145.6838038253939</v>
+        <v>145.68</v>
       </c>
     </row>
     <row r="267">
@@ -7435,10 +7435,10 @@
         <v>761264142.22</v>
       </c>
       <c r="F268">
-        <v>-24.23726973030348</v>
+        <v>-24.24</v>
       </c>
       <c r="G268">
-        <v>75.76273026969652</v>
+        <v>75.76000000000001</v>
       </c>
     </row>
     <row r="269">
@@ -7462,10 +7462,10 @@
         <v>1202141167.7</v>
       </c>
       <c r="F269">
-        <v>57.91380429325275</v>
+        <v>57.91</v>
       </c>
       <c r="G269">
-        <v>119.6398096053135</v>
+        <v>119.64</v>
       </c>
     </row>
     <row r="270">
@@ -7489,10 +7489,10 @@
         <v>3622731683.81</v>
       </c>
       <c r="F270">
-        <v>201.3565944789331</v>
+        <v>201.36</v>
       </c>
       <c r="G270">
-        <v>360.5424558676523</v>
+        <v>360.54</v>
       </c>
     </row>
     <row r="271">
@@ -7516,10 +7516,10 @@
         <v>4057736961.7</v>
       </c>
       <c r="F271">
-        <v>12.0076592984802</v>
+        <v>12.01</v>
       </c>
       <c r="G271">
-        <v>403.8351655946133</v>
+        <v>403.84</v>
       </c>
     </row>
     <row r="272">
@@ -7567,10 +7567,10 @@
         <v>1797588028.87</v>
       </c>
       <c r="F273">
-        <v>-36.5292005548441</v>
+        <v>-36.53</v>
       </c>
       <c r="G273">
-        <v>63.4707994451559</v>
+        <v>63.47</v>
       </c>
     </row>
     <row r="274">
@@ -7594,10 +7594,10 @@
         <v>371916706.94</v>
       </c>
       <c r="F274">
-        <v>-79.31023677467444</v>
+        <v>-79.31</v>
       </c>
       <c r="G274">
-        <v>13.13195812242401</v>
+        <v>13.13</v>
       </c>
     </row>
     <row r="275">
@@ -7621,10 +7621,10 @@
         <v>293741394.67</v>
       </c>
       <c r="F275">
-        <v>-21.01957530039427</v>
+        <v>-21.02</v>
       </c>
       <c r="G275">
-        <v>10.37167629646485</v>
+        <v>10.37</v>
       </c>
     </row>
     <row r="276">
@@ -7648,10 +7648,10 @@
         <v>243016311.75</v>
       </c>
       <c r="F276">
-        <v>-17.26861921418548</v>
+        <v>-17.27</v>
       </c>
       <c r="G276">
-        <v>8.580631010700403</v>
+        <v>8.58</v>
       </c>
     </row>
     <row r="277">
@@ -7699,10 +7699,10 @@
         <v>18333823726.56</v>
       </c>
       <c r="F278">
-        <v>-1.877847617103501</v>
+        <v>-1.88</v>
       </c>
       <c r="G278">
-        <v>98.1221523828965</v>
+        <v>98.12</v>
       </c>
     </row>
     <row r="279">
@@ -7726,10 +7726,10 @@
         <v>17889731781.69</v>
       </c>
       <c r="F279">
-        <v>-2.422254907069121</v>
+        <v>-2.42</v>
       </c>
       <c r="G279">
-        <v>95.74538373187995</v>
+        <v>95.75</v>
       </c>
     </row>
     <row r="280">
@@ -7753,10 +7753,10 @@
         <v>19678472907.92</v>
       </c>
       <c r="F280">
-        <v>9.998702876365995</v>
+        <v>10</v>
       </c>
       <c r="G280">
-        <v>105.3186801690671</v>
+        <v>105.32</v>
       </c>
     </row>
     <row r="281">
@@ -7780,10 +7780,10 @@
         <v>23115189538.68</v>
       </c>
       <c r="F281">
-        <v>17.46434617585</v>
+        <v>17.46</v>
       </c>
       <c r="G281">
-        <v>123.7118990616293</v>
+        <v>123.71</v>
       </c>
     </row>
     <row r="282">
@@ -7831,10 +7831,10 @@
         <v>17913939573.06</v>
       </c>
       <c r="F283">
-        <v>0.8218605290379877</v>
+        <v>0.82</v>
       </c>
       <c r="G283">
-        <v>100.821860529038</v>
+        <v>100.82</v>
       </c>
     </row>
     <row r="284">
@@ -7858,10 +7858,10 @@
         <v>17562631354.3</v>
       </c>
       <c r="F284">
-        <v>-1.961088555240631</v>
+        <v>-1.96</v>
       </c>
       <c r="G284">
-        <v>98.84465456102235</v>
+        <v>98.84</v>
       </c>
     </row>
     <row r="285">
@@ -7885,10 +7885,10 @@
         <v>18674844494.1</v>
       </c>
       <c r="F285">
-        <v>6.332838840392152</v>
+        <v>6.33</v>
       </c>
       <c r="G285">
-        <v>105.1043272367142</v>
+        <v>105.1</v>
       </c>
     </row>
     <row r="286">
@@ -7912,10 +7912,10 @@
         <v>22389291929.26</v>
       </c>
       <c r="F286">
-        <v>19.89011172935613</v>
+        <v>19.89</v>
       </c>
       <c r="G286">
-        <v>126.0096953564848</v>
+        <v>126.01</v>
       </c>
     </row>
     <row r="287">
@@ -7963,10 +7963,10 @@
         <v>17371185300.74</v>
       </c>
       <c r="F288">
-        <v>-0.2637149627092605</v>
+        <v>-0.26</v>
       </c>
       <c r="G288">
-        <v>99.73628503729074</v>
+        <v>99.73999999999999</v>
       </c>
     </row>
     <row r="289">
@@ -7990,10 +7990,10 @@
         <v>17196654755.91</v>
       </c>
       <c r="F289">
-        <v>-1.004712930110574</v>
+        <v>-1</v>
       </c>
       <c r="G289">
-        <v>98.73422168550914</v>
+        <v>98.73</v>
       </c>
     </row>
     <row r="290">
@@ -8017,10 +8017,10 @@
         <v>18561467986.01</v>
       </c>
       <c r="F290">
-        <v>7.93650421824601</v>
+        <v>7.94</v>
       </c>
       <c r="G290">
-        <v>106.5702673544319</v>
+        <v>106.57</v>
       </c>
     </row>
     <row r="291">
@@ -8044,10 +8044,10 @@
         <v>22249068982.43</v>
       </c>
       <c r="F291">
-        <v>19.8669684919285</v>
+        <v>19.87</v>
       </c>
       <c r="G291">
-        <v>127.7425487915009</v>
+        <v>127.74</v>
       </c>
     </row>
     <row r="292">
@@ -8095,10 +8095,10 @@
         <v>419884153.5</v>
       </c>
       <c r="F293">
-        <v>-54.2002028094655</v>
+        <v>-54.2</v>
       </c>
       <c r="G293">
-        <v>45.7997971905345</v>
+        <v>45.8</v>
       </c>
     </row>
     <row r="294">
@@ -8122,10 +8122,10 @@
         <v>327100427.39</v>
       </c>
       <c r="F294">
-        <v>-22.0974583909845</v>
+        <v>-22.1</v>
       </c>
       <c r="G294">
-        <v>35.67920606320084</v>
+        <v>35.68</v>
       </c>
     </row>
     <row r="295">
@@ -8149,10 +8149,10 @@
         <v>1003628413.81</v>
       </c>
       <c r="F295">
-        <v>206.8257726894925</v>
+        <v>206.83</v>
       </c>
       <c r="G295">
-        <v>109.4729996928923</v>
+        <v>109.47</v>
       </c>
     </row>
     <row r="296">
@@ -8176,10 +8176,10 @@
         <v>725897609.42</v>
       </c>
       <c r="F296">
-        <v>-27.67267253182591</v>
+        <v>-27.67</v>
       </c>
       <c r="G296">
-        <v>79.1788949771114</v>
+        <v>79.18000000000001</v>
       </c>
     </row>
     <row r="297">
@@ -8227,10 +8227,10 @@
         <v>542754272.3200001</v>
       </c>
       <c r="F298">
-        <v>54.72109081795189</v>
+        <v>54.72</v>
       </c>
       <c r="G298">
-        <v>154.7210908179519</v>
+        <v>154.72</v>
       </c>
     </row>
     <row r="299">
@@ -8254,10 +8254,10 @@
         <v>365976598.39</v>
       </c>
       <c r="F299">
-        <v>-32.5704804080795</v>
+        <v>-32.57</v>
       </c>
       <c r="G299">
-        <v>104.327688245924</v>
+        <v>104.33</v>
       </c>
     </row>
     <row r="300">
@@ -8281,10 +8281,10 @@
         <v>113376508.09</v>
       </c>
       <c r="F300">
-        <v>-69.02083122561262</v>
+        <v>-69.02</v>
       </c>
       <c r="G300">
-        <v>32.31985062012149</v>
+        <v>32.32</v>
       </c>
     </row>
     <row r="301">
@@ -8308,10 +8308,10 @@
         <v>140222946.83</v>
       </c>
       <c r="F301">
-        <v>23.67901357368398</v>
+        <v>23.68</v>
       </c>
       <c r="G301">
-        <v>39.97287243545444</v>
+        <v>39.97</v>
       </c>
     </row>
     <row r="302">
@@ -8359,10 +8359,10 @@
         <v>131642468085.23</v>
       </c>
       <c r="F303">
-        <v>0.7067326291636755</v>
+        <v>0.71</v>
       </c>
       <c r="G303">
-        <v>100.7067326291637</v>
+        <v>100.71</v>
       </c>
     </row>
     <row r="304">
@@ -8386,10 +8386,10 @@
         <v>124703307665.85</v>
       </c>
       <c r="F304">
-        <v>-5.271217199367095</v>
+        <v>-5.27</v>
       </c>
       <c r="G304">
-        <v>95.39826201789457</v>
+        <v>95.40000000000001</v>
       </c>
     </row>
     <row r="305">
@@ -8413,10 +8413,10 @@
         <v>136348315401.78</v>
       </c>
       <c r="F305">
-        <v>9.338170698032711</v>
+        <v>9.34</v>
       </c>
       <c r="G305">
-        <v>104.3067145680821</v>
+        <v>104.31</v>
       </c>
     </row>
     <row r="306">
@@ -8440,10 +8440,10 @@
         <v>116489779176.87</v>
       </c>
       <c r="F306">
-        <v>-14.56456294776544</v>
+        <v>-14.56</v>
       </c>
       <c r="G306">
-        <v>89.11489746606773</v>
+        <v>89.11</v>
       </c>
     </row>
     <row r="307">
@@ -8491,10 +8491,10 @@
         <v>125369534892.18</v>
       </c>
       <c r="F308">
-        <v>0.3975020910255367</v>
+        <v>0.4</v>
       </c>
       <c r="G308">
-        <v>100.3975020910255</v>
+        <v>100.4</v>
       </c>
     </row>
     <row r="309">
@@ -8518,10 +8518,10 @@
         <v>119721378780.65</v>
       </c>
       <c r="F309">
-        <v>-4.505206242000903</v>
+        <v>-4.51</v>
       </c>
       <c r="G309">
-        <v>95.87438756000766</v>
+        <v>95.87</v>
       </c>
     </row>
     <row r="310">
@@ -8545,10 +8545,10 @@
         <v>128931498791.04</v>
       </c>
       <c r="F310">
-        <v>7.692961862111947</v>
+        <v>7.69</v>
       </c>
       <c r="G310">
-        <v>103.2499676305325</v>
+        <v>103.25</v>
       </c>
     </row>
     <row r="311">
@@ -8572,10 +8572,10 @@
         <v>111039756965.04</v>
       </c>
       <c r="F311">
-        <v>-13.87693619772252</v>
+        <v>-13.88</v>
       </c>
       <c r="G311">
-        <v>88.92203549827431</v>
+        <v>88.92</v>
       </c>
     </row>
     <row r="312">
@@ -8623,10 +8623,10 @@
         <v>103482919813.01</v>
       </c>
       <c r="F313">
-        <v>-2.013918669508896</v>
+        <v>-2.01</v>
       </c>
       <c r="G313">
-        <v>97.9860813304911</v>
+        <v>97.98999999999999</v>
       </c>
     </row>
     <row r="314">
@@ -8650,10 +8650,10 @@
         <v>100816713526.48</v>
       </c>
       <c r="F314">
-        <v>-2.576469905707857</v>
+        <v>-2.58</v>
       </c>
       <c r="G314">
-        <v>95.46149943322858</v>
+        <v>95.45999999999999</v>
       </c>
     </row>
     <row r="315">
@@ -8677,10 +8677,10 @@
         <v>112243954303.42</v>
       </c>
       <c r="F315">
-        <v>11.33466900201878</v>
+        <v>11.33</v>
       </c>
       <c r="G315">
-        <v>106.2817444183491</v>
+        <v>106.28</v>
       </c>
     </row>
     <row r="316">
@@ -8704,10 +8704,10 @@
         <v>106202526876.27</v>
       </c>
       <c r="F316">
-        <v>-5.382407867437289</v>
+        <v>-5.38</v>
       </c>
       <c r="G316">
-        <v>100.5612274451262</v>
+        <v>100.56</v>
       </c>
     </row>
     <row r="317">
@@ -8755,10 +8755,10 @@
         <v>6272933193.05</v>
       </c>
       <c r="F318">
-        <v>7.312627364381008</v>
+        <v>7.31</v>
       </c>
       <c r="G318">
-        <v>107.312627364381</v>
+        <v>107.31</v>
       </c>
     </row>
     <row r="319">
@@ -8782,10 +8782,10 @@
         <v>4981928885.21</v>
       </c>
       <c r="F319">
-        <v>-20.58055248014356</v>
+        <v>-20.58</v>
       </c>
       <c r="G319">
-        <v>85.22709577183369</v>
+        <v>85.23</v>
       </c>
     </row>
     <row r="320">
@@ -8809,10 +8809,10 @@
         <v>7416816610.74</v>
       </c>
       <c r="F320">
-        <v>48.87439748003073</v>
+        <v>48.87</v>
       </c>
       <c r="G320">
-        <v>126.8813253200461</v>
+        <v>126.88</v>
       </c>
     </row>
     <row r="321">
@@ -8836,10 +8836,10 @@
         <v>5450022211.83</v>
       </c>
       <c r="F321">
-        <v>-26.51804004513153</v>
+        <v>-26.52</v>
       </c>
       <c r="G321">
-        <v>93.23488466188269</v>
+        <v>93.23</v>
       </c>
     </row>
     <row r="322">
@@ -8887,10 +8887,10 @@
         <v>21886615079.17</v>
       </c>
       <c r="F323">
-        <v>13.61793138440786</v>
+        <v>13.62</v>
       </c>
       <c r="G323">
-        <v>113.6179313844079</v>
+        <v>113.62</v>
       </c>
     </row>
     <row r="324">
@@ -8914,10 +8914,10 @@
         <v>18904665254.17</v>
       </c>
       <c r="F324">
-        <v>-13.62453633973757</v>
+        <v>-13.62</v>
       </c>
       <c r="G324">
-        <v>98.13801503448111</v>
+        <v>98.14</v>
       </c>
     </row>
     <row r="325">
@@ -8941,10 +8941,10 @@
         <v>16687544487.62</v>
       </c>
       <c r="F325">
-        <v>-11.72790280463149</v>
+        <v>-11.73</v>
       </c>
       <c r="G325">
-        <v>86.62848401684253</v>
+        <v>86.63</v>
       </c>
     </row>
     <row r="326">
@@ -8968,10 +8968,10 @@
         <v>4837230088.77</v>
       </c>
       <c r="F326">
-        <v>-71.01293067797603</v>
+        <v>-71.01000000000001</v>
       </c>
       <c r="G326">
-        <v>25.1110587145806</v>
+        <v>25.11</v>
       </c>
     </row>
     <row r="327">
@@ -9019,10 +9019,10 @@
         <v>63365983330.17</v>
       </c>
       <c r="F328">
-        <v>-2.553021057639415</v>
+        <v>-2.55</v>
       </c>
       <c r="G328">
-        <v>97.44697894236059</v>
+        <v>97.45</v>
       </c>
     </row>
     <row r="329">
@@ -9046,10 +9046,10 @@
         <v>54824596538.9</v>
       </c>
       <c r="F329">
-        <v>-13.47945118560678</v>
+        <v>-13.48</v>
       </c>
       <c r="G329">
-        <v>84.31166098397657</v>
+        <v>84.31</v>
       </c>
     </row>
     <row r="330">
@@ -9073,10 +9073,10 @@
         <v>55168995049.27</v>
       </c>
       <c r="F330">
-        <v>0.6281824803318514</v>
+        <v>0.63</v>
       </c>
       <c r="G330">
-        <v>84.8412920671547</v>
+        <v>84.84</v>
       </c>
     </row>
     <row r="331">
@@ -9100,10 +9100,10 @@
         <v>57826820690.86</v>
       </c>
       <c r="F331">
-        <v>4.817607497139242</v>
+        <v>4.82</v>
       </c>
       <c r="G331">
-        <v>88.92861251445174</v>
+        <v>88.93000000000001</v>
       </c>
     </row>
     <row r="332">
@@ -9151,10 +9151,10 @@
         <v>60180240285.17</v>
       </c>
       <c r="F333">
-        <v>-2.215029414116898</v>
+        <v>-2.22</v>
       </c>
       <c r="G333">
-        <v>97.7849705858831</v>
+        <v>97.78</v>
       </c>
     </row>
     <row r="334">
@@ -9178,10 +9178,10 @@
         <v>50293793996.58</v>
       </c>
       <c r="F334">
-        <v>-16.42806050913406</v>
+        <v>-16.43</v>
       </c>
       <c r="G334">
-        <v>81.72079644919529</v>
+        <v>81.72</v>
       </c>
     </row>
     <row r="335">
@@ -9205,10 +9205,10 @@
         <v>49459211497.67</v>
       </c>
       <c r="F335">
-        <v>-1.659414477592913</v>
+        <v>-1.66</v>
       </c>
       <c r="G335">
-        <v>80.3647097217131</v>
+        <v>80.36</v>
       </c>
     </row>
     <row r="336">
@@ -9232,10 +9232,10 @@
         <v>51036700292.86</v>
       </c>
       <c r="F336">
-        <v>3.189474210004972</v>
+        <v>3.19</v>
       </c>
       <c r="G336">
-        <v>82.92792141223251</v>
+        <v>82.93000000000001</v>
       </c>
     </row>
     <row r="337">
@@ -9283,10 +9283,10 @@
         <v>58255679696.87</v>
       </c>
       <c r="F338">
-        <v>-3.909726371295219</v>
+        <v>-3.91</v>
       </c>
       <c r="G338">
-        <v>96.09027362870478</v>
+        <v>96.09</v>
       </c>
     </row>
     <row r="339">
@@ -9310,10 +9310,10 @@
         <v>50146927527.96</v>
       </c>
       <c r="F339">
-        <v>-13.91924737828726</v>
+        <v>-13.92</v>
       </c>
       <c r="G339">
-        <v>82.71523073585224</v>
+        <v>82.72</v>
       </c>
     </row>
     <row r="340">
@@ -9337,10 +9337,10 @@
         <v>49220843001.97</v>
       </c>
       <c r="F340">
-        <v>-1.846742306342997</v>
+        <v>-1.85</v>
       </c>
       <c r="G340">
-        <v>81.18769357606402</v>
+        <v>81.19</v>
       </c>
     </row>
     <row r="341">
@@ -9364,10 +9364,10 @@
         <v>50955712165.26</v>
       </c>
       <c r="F341">
-        <v>3.524663653608218</v>
+        <v>3.52</v>
       </c>
       <c r="G341">
-        <v>84.04928670274238</v>
+        <v>84.05</v>
       </c>
     </row>
     <row r="342">
@@ -9415,10 +9415,10 @@
         <v>3185743045</v>
       </c>
       <c r="F343">
-        <v>-8.525789747839706</v>
+        <v>-8.529999999999999</v>
       </c>
       <c r="G343">
-        <v>91.47421025216029</v>
+        <v>91.47</v>
       </c>
     </row>
     <row r="344">
@@ -9442,10 +9442,10 @@
         <v>4530802542.33</v>
       </c>
       <c r="F344">
-        <v>42.22121741554332</v>
+        <v>42.22</v>
       </c>
       <c r="G344">
-        <v>130.0957354418761</v>
+        <v>130.1</v>
       </c>
     </row>
     <row r="345">
@@ -9469,10 +9469,10 @@
         <v>5709783551.6</v>
       </c>
       <c r="F345">
-        <v>26.02146083955581</v>
+        <v>26.02</v>
       </c>
       <c r="G345">
-        <v>163.948546293816</v>
+        <v>163.95</v>
       </c>
     </row>
     <row r="346">
@@ -9496,10 +9496,10 @@
         <v>6790120398</v>
       </c>
       <c r="F346">
-        <v>18.92080210461335</v>
+        <v>18.92</v>
       </c>
       <c r="G346">
-        <v>194.9689262914594</v>
+        <v>194.97</v>
       </c>
     </row>
     <row r="347">
@@ -9547,10 +9547,10 @@
         <v>1924560588.3</v>
       </c>
       <c r="F348">
-        <v>109.7715019390696</v>
+        <v>109.77</v>
       </c>
       <c r="G348">
-        <v>209.7715019390696</v>
+        <v>209.77</v>
       </c>
     </row>
     <row r="349">
@@ -9574,10 +9574,10 @@
         <v>146866468.62</v>
       </c>
       <c r="F349">
-        <v>-92.36883112369406</v>
+        <v>-92.37</v>
       </c>
       <c r="G349">
-        <v>16.00801756733378</v>
+        <v>16.01</v>
       </c>
     </row>
     <row r="350">
@@ -9601,10 +9601,10 @@
         <v>238368495.7</v>
       </c>
       <c r="F350">
-        <v>62.30287140405812</v>
+        <v>62.3</v>
       </c>
       <c r="G350">
-        <v>25.98147216664879</v>
+        <v>25.98</v>
       </c>
     </row>
     <row r="351">
@@ -9628,10 +9628,10 @@
         <v>80988127.59999999</v>
       </c>
       <c r="F351">
-        <v>-66.0239800724639</v>
+        <v>-66.02</v>
       </c>
       <c r="G351">
-        <v>8.82747016080784</v>
+        <v>8.83</v>
       </c>
     </row>
     <row r="352">
@@ -9679,10 +9679,10 @@
         <v>13055755525.29</v>
       </c>
       <c r="F353">
-        <v>-2.108470215878444</v>
+        <v>-2.11</v>
       </c>
       <c r="G353">
-        <v>97.89152978412156</v>
+        <v>97.89</v>
       </c>
     </row>
     <row r="354">
@@ -9706,10 +9706,10 @@
         <v>12706270183.45</v>
       </c>
       <c r="F354">
-        <v>-2.676868000193633</v>
+        <v>-2.68</v>
       </c>
       <c r="G354">
-        <v>95.27110274843039</v>
+        <v>95.27</v>
       </c>
     </row>
     <row r="355">
@@ -9733,10 +9733,10 @@
         <v>13671157959.56</v>
       </c>
       <c r="F355">
-        <v>7.593792373207764</v>
+        <v>7.59</v>
       </c>
       <c r="G355">
-        <v>102.5057924828116</v>
+        <v>102.51</v>
       </c>
     </row>
     <row r="356">
@@ -9760,10 +9760,10 @@
         <v>15979045998.2</v>
       </c>
       <c r="F356">
-        <v>16.88143788161072</v>
+        <v>16.88</v>
       </c>
       <c r="G356">
-        <v>119.8102441658503</v>
+        <v>119.81</v>
       </c>
     </row>
     <row r="357">
@@ -9811,10 +9811,10 @@
         <v>12766183024.38</v>
       </c>
       <c r="F358">
-        <v>-2.989614595843637</v>
+        <v>-2.99</v>
       </c>
       <c r="G358">
-        <v>97.01038540415637</v>
+        <v>97.01000000000001</v>
       </c>
     </row>
     <row r="359">
@@ -9838,10 +9838,10 @@
         <v>12491596572.45</v>
       </c>
       <c r="F359">
-        <v>-2.150889200049944</v>
+        <v>-2.15</v>
       </c>
       <c r="G359">
-        <v>94.92379950157154</v>
+        <v>94.92</v>
       </c>
     </row>
     <row r="360">
@@ -9865,10 +9865,10 @@
         <v>12870965984.78</v>
       </c>
       <c r="F360">
-        <v>3.036996993376273</v>
+        <v>3.04</v>
       </c>
       <c r="G360">
-        <v>97.80663243843279</v>
+        <v>97.81</v>
       </c>
     </row>
     <row r="361">
@@ -9892,10 +9892,10 @@
         <v>15418419840.18</v>
       </c>
       <c r="F361">
-        <v>19.79225070140329</v>
+        <v>19.79</v>
       </c>
       <c r="G361">
-        <v>117.1647663332474</v>
+        <v>117.16</v>
       </c>
     </row>
     <row r="362">
@@ -9943,10 +9943,10 @@
         <v>12669834266.16</v>
       </c>
       <c r="F363">
-        <v>-2.469671252126082</v>
+        <v>-2.47</v>
       </c>
       <c r="G363">
-        <v>97.53032874787392</v>
+        <v>97.53</v>
       </c>
     </row>
     <row r="364">
@@ -9970,10 +9970,10 @@
         <v>12387429111.66</v>
       </c>
       <c r="F364">
-        <v>-2.228956974238239</v>
+        <v>-2.23</v>
       </c>
       <c r="G364">
-        <v>95.35641968325071</v>
+        <v>95.36</v>
       </c>
     </row>
     <row r="365">
@@ -9997,10 +9997,10 @@
         <v>12788689422.67</v>
       </c>
       <c r="F365">
-        <v>3.239254145416681</v>
+        <v>3.24</v>
       </c>
       <c r="G365">
-        <v>98.44525646076133</v>
+        <v>98.45</v>
       </c>
     </row>
     <row r="366">
@@ -10024,10 +10024,10 @@
         <v>15301079261.71</v>
       </c>
       <c r="F366">
-        <v>19.64540506071237</v>
+        <v>19.65</v>
       </c>
       <c r="G366">
-        <v>117.785225855535</v>
+        <v>117.79</v>
       </c>
     </row>
     <row r="367">
@@ -10075,10 +10075,10 @@
         <v>289572500.91</v>
       </c>
       <c r="F368">
-        <v>63.27106297034468</v>
+        <v>63.27</v>
       </c>
       <c r="G368">
-        <v>163.2710629703447</v>
+        <v>163.27</v>
       </c>
     </row>
     <row r="369">
@@ -10102,10 +10102,10 @@
         <v>214673611</v>
       </c>
       <c r="F369">
-        <v>-25.86533240367282</v>
+        <v>-25.87</v>
       </c>
       <c r="G369">
-        <v>121.040459814055</v>
+        <v>121.04</v>
       </c>
     </row>
     <row r="370">
@@ -10129,10 +10129,10 @@
         <v>800191974.78</v>
       </c>
       <c r="F370">
-        <v>272.748178526703</v>
+        <v>272.75</v>
       </c>
       <c r="G370">
-        <v>451.1761092372361</v>
+        <v>451.18</v>
       </c>
     </row>
     <row r="371">
@@ -10156,10 +10156,10 @@
         <v>560626158.02</v>
       </c>
       <c r="F371">
-        <v>-29.93854278854331</v>
+        <v>-29.94</v>
       </c>
       <c r="G371">
-        <v>316.1005567215612</v>
+        <v>316.1</v>
       </c>
     </row>
     <row r="372">
@@ -10207,10 +10207,10 @@
         <v>96348758.22</v>
       </c>
       <c r="F373">
-        <v>-42.9698669853521</v>
+        <v>-42.97</v>
       </c>
       <c r="G373">
-        <v>57.0301330146479</v>
+        <v>57.03</v>
       </c>
     </row>
     <row r="374">
@@ -10234,10 +10234,10 @@
         <v>104167460.78</v>
       </c>
       <c r="F374">
-        <v>8.115000861917698</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="G374">
-        <v>61.65812880033938</v>
+        <v>61.66</v>
       </c>
     </row>
     <row r="375">
@@ -10261,10 +10261,10 @@
         <v>82276562.11</v>
       </c>
       <c r="F375">
-        <v>-21.01510251481816</v>
+        <v>-21.02</v>
       </c>
       <c r="G375">
-        <v>48.70060982422944</v>
+        <v>48.7</v>
       </c>
     </row>
     <row r="376">
@@ -10288,10 +10288,10 @@
         <v>117340578.47</v>
       </c>
       <c r="F376">
-        <v>42.61725995930774</v>
+        <v>42.62</v>
       </c>
       <c r="G376">
-        <v>69.45547531478947</v>
+        <v>69.45999999999999</v>
       </c>
     </row>
     <row r="377">
@@ -10339,10 +10339,10 @@
         <v>31707211649.26</v>
       </c>
       <c r="F378">
-        <v>-1.838602801147449</v>
+        <v>-1.84</v>
       </c>
       <c r="G378">
-        <v>98.16139719885255</v>
+        <v>98.16</v>
       </c>
     </row>
     <row r="379">
@@ -10366,10 +10366,10 @@
         <v>35712380879.32</v>
       </c>
       <c r="F379">
-        <v>12.63172957106582</v>
+        <v>12.63</v>
       </c>
       <c r="G379">
-        <v>110.5608794361914</v>
+        <v>110.56</v>
       </c>
     </row>
     <row r="380">
@@ -10393,10 +10393,10 @@
         <v>36999949373.56</v>
       </c>
       <c r="F380">
-        <v>3.60538407839841</v>
+        <v>3.61</v>
       </c>
       <c r="G380">
-        <v>114.5470237803211</v>
+        <v>114.55</v>
       </c>
     </row>
     <row r="381">
@@ -10420,10 +10420,10 @@
         <v>38407242463.87</v>
       </c>
       <c r="F381">
-        <v>3.803500042936947</v>
+        <v>3.8</v>
       </c>
       <c r="G381">
-        <v>118.9038198789886</v>
+        <v>118.9</v>
       </c>
     </row>
     <row r="382">
@@ -10471,10 +10471,10 @@
         <v>31590637804.53</v>
       </c>
       <c r="F383">
-        <v>-2.167818296673185</v>
+        <v>-2.17</v>
       </c>
       <c r="G383">
-        <v>97.83218170332681</v>
+        <v>97.83</v>
       </c>
     </row>
     <row r="384">
@@ -10498,10 +10498,10 @@
         <v>35623016861.39</v>
       </c>
       <c r="F384">
-        <v>12.76447497455011</v>
+        <v>12.76</v>
       </c>
       <c r="G384">
-        <v>110.3199460539044</v>
+        <v>110.32</v>
       </c>
     </row>
     <row r="385">
@@ -10525,10 +10525,10 @@
         <v>36844525365.99</v>
       </c>
       <c r="F385">
-        <v>3.428986683954705</v>
+        <v>3.43</v>
       </c>
       <c r="G385">
-        <v>114.1028023138388</v>
+        <v>114.1</v>
       </c>
     </row>
     <row r="386">
@@ -10552,10 +10552,10 @@
         <v>38125052083.14</v>
       </c>
       <c r="F386">
-        <v>3.47548707556975</v>
+        <v>3.48</v>
       </c>
       <c r="G386">
-        <v>118.0684304611191</v>
+        <v>118.07</v>
       </c>
     </row>
     <row r="387">
@@ -10603,10 +10603,10 @@
         <v>31341317201.72</v>
       </c>
       <c r="F388">
-        <v>-2.137386600807745</v>
+        <v>-2.14</v>
       </c>
       <c r="G388">
-        <v>97.86261339919226</v>
+        <v>97.86</v>
       </c>
     </row>
     <row r="389">
@@ -10630,10 +10630,10 @@
         <v>35131790015.73</v>
       </c>
       <c r="F389">
-        <v>12.09417201457628</v>
+        <v>12.09</v>
       </c>
       <c r="G389">
-        <v>109.6982862016503</v>
+        <v>109.7</v>
       </c>
     </row>
     <row r="390">
@@ -10657,10 +10657,10 @@
         <v>36143203261.41</v>
       </c>
       <c r="F390">
-        <v>2.878911792502303</v>
+        <v>2.88</v>
       </c>
       <c r="G390">
-        <v>112.8564030992826</v>
+        <v>112.86</v>
       </c>
     </row>
     <row r="391">
@@ -10684,10 +10684,10 @@
         <v>37298822607.18</v>
       </c>
       <c r="F391">
-        <v>3.197335159841375</v>
+        <v>3.2</v>
       </c>
       <c r="G391">
-        <v>116.4648005557083</v>
+        <v>116.46</v>
       </c>
     </row>
     <row r="392">
@@ -10735,10 +10735,10 @@
         <v>116573844.73</v>
       </c>
       <c r="F393">
-        <v>1014.432391621444</v>
+        <v>1014.43</v>
       </c>
       <c r="G393">
-        <v>1114.432391621444</v>
+        <v>1114.43</v>
       </c>
     </row>
     <row r="394">
@@ -10762,10 +10762,10 @@
         <v>89364017.93000001</v>
       </c>
       <c r="F394">
-        <v>-23.34127939506624</v>
+        <v>-23.34</v>
       </c>
       <c r="G394">
-        <v>854.3096134239642</v>
+        <v>854.3099999999999</v>
       </c>
     </row>
     <row r="395">
@@ -10789,10 +10789,10 @@
         <v>155424007.57</v>
       </c>
       <c r="F395">
-        <v>73.92235842813785</v>
+        <v>73.92</v>
       </c>
       <c r="G395">
-        <v>1485.835427945266</v>
+        <v>1485.84</v>
       </c>
     </row>
     <row r="396">
@@ -10816,10 +10816,10 @@
         <v>282190380.73</v>
       </c>
       <c r="F396">
-        <v>81.56164233695162</v>
+        <v>81.56</v>
       </c>
       <c r="G396">
-        <v>2697.707205401698</v>
+        <v>2697.71</v>
       </c>
     </row>
     <row r="397">
@@ -10867,10 +10867,10 @@
         <v>249320602.81</v>
       </c>
       <c r="F398">
-        <v>-5.848234144091535</v>
+        <v>-5.85</v>
       </c>
       <c r="G398">
-        <v>94.15176585590847</v>
+        <v>94.15000000000001</v>
       </c>
     </row>
     <row r="399">
@@ -10894,10 +10894,10 @@
         <v>491226845.66</v>
       </c>
       <c r="F399">
-        <v>97.02617438092341</v>
+        <v>97.03</v>
       </c>
       <c r="G399">
-        <v>185.5036223779809</v>
+        <v>185.5</v>
       </c>
     </row>
     <row r="400">
@@ -10921,10 +10921,10 @@
         <v>701322104.58</v>
       </c>
       <c r="F400">
-        <v>42.76949860867667</v>
+        <v>42.77</v>
       </c>
       <c r="G400">
-        <v>264.8425915699763</v>
+        <v>264.84</v>
       </c>
     </row>
     <row r="401">
@@ -10948,10 +10948,10 @@
         <v>826229475.96</v>
       </c>
       <c r="F401">
-        <v>17.81027156627313</v>
+        <v>17.81</v>
       </c>
       <c r="G401">
-        <v>312.0117763517446</v>
+        <v>312.01</v>
       </c>
     </row>
     <row r="402">
@@ -10999,10 +10999,10 @@
         <v>45243484908.36</v>
       </c>
       <c r="F403">
-        <v>2.546602762947892</v>
+        <v>2.55</v>
       </c>
       <c r="G403">
-        <v>102.5466027629479</v>
+        <v>102.55</v>
       </c>
     </row>
     <row r="404">
@@ -11026,10 +11026,10 @@
         <v>44912143864.64</v>
       </c>
       <c r="F404">
-        <v>-0.7323508443063731</v>
+        <v>-0.73</v>
       </c>
       <c r="G404">
-        <v>101.7956018518059</v>
+        <v>101.8</v>
       </c>
     </row>
     <row r="405">
@@ -11053,10 +11053,10 @@
         <v>45134187798.11</v>
       </c>
       <c r="F405">
-        <v>0.4943962019252846</v>
+        <v>0.49</v>
       </c>
       <c r="G405">
-        <v>102.2988754410882</v>
+        <v>102.3</v>
       </c>
     </row>
     <row r="406">
@@ -11080,10 +11080,10 @@
         <v>51429919919.53</v>
       </c>
       <c r="F406">
-        <v>13.94892082600771</v>
+        <v>13.95</v>
       </c>
       <c r="G406">
-        <v>116.5684645822619</v>
+        <v>116.57</v>
       </c>
     </row>
     <row r="407">
@@ -11131,10 +11131,10 @@
         <v>45243484908.36</v>
       </c>
       <c r="F408">
-        <v>2.546602762947892</v>
+        <v>2.55</v>
       </c>
       <c r="G408">
-        <v>102.5466027629479</v>
+        <v>102.55</v>
       </c>
     </row>
     <row r="409">
@@ -11158,10 +11158,10 @@
         <v>44912143864.64</v>
       </c>
       <c r="F409">
-        <v>-0.7323508443063731</v>
+        <v>-0.73</v>
       </c>
       <c r="G409">
-        <v>101.7956018518059</v>
+        <v>101.8</v>
       </c>
     </row>
     <row r="410">
@@ -11185,10 +11185,10 @@
         <v>44691602512.15</v>
       </c>
       <c r="F410">
-        <v>-0.4910506012687388</v>
+        <v>-0.49</v>
       </c>
       <c r="G410">
-        <v>101.2957339368475</v>
+        <v>101.3</v>
       </c>
     </row>
     <row r="411">
@@ -11212,10 +11212,10 @@
         <v>51425992732.36</v>
       </c>
       <c r="F411">
-        <v>15.06858076610516</v>
+        <v>15.07</v>
       </c>
       <c r="G411">
-        <v>116.5595634177404</v>
+        <v>116.56</v>
       </c>
     </row>
     <row r="412">
@@ -11263,10 +11263,10 @@
         <v>44325960574.35</v>
       </c>
       <c r="F413">
-        <v>4.418690510194723</v>
+        <v>4.42</v>
       </c>
       <c r="G413">
-        <v>104.4186905101947</v>
+        <v>104.42</v>
       </c>
     </row>
     <row r="414">
@@ -11290,10 +11290,10 @@
         <v>44063995536.64</v>
       </c>
       <c r="F414">
-        <v>-0.5909968657545339</v>
+        <v>-0.59</v>
       </c>
       <c r="G414">
-        <v>103.8015793220175</v>
+        <v>103.8</v>
       </c>
     </row>
     <row r="415">
@@ -11317,10 +11317,10 @@
         <v>43706928044.19</v>
       </c>
       <c r="F415">
-        <v>-0.8103384364068544</v>
+        <v>-0.8100000000000001</v>
       </c>
       <c r="G415">
-        <v>102.9604352271739</v>
+        <v>102.96</v>
       </c>
     </row>
     <row r="416">
@@ -11344,10 +11344,10 @@
         <v>50441793170.06</v>
       </c>
       <c r="F416">
-        <v>15.40914776499664</v>
+        <v>15.41</v>
       </c>
       <c r="G416">
-        <v>118.8257608308128</v>
+        <v>118.83</v>
       </c>
     </row>
     <row r="417">
@@ -11395,10 +11395,10 @@
         <v>3927187.17</v>
       </c>
       <c r="F418">
-        <v>-99.11267109536151</v>
+        <v>-99.11</v>
       </c>
       <c r="G418">
-        <v>0.8873289046384958</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="419">
@@ -11446,10 +11446,10 @@
         <v>917524334.02</v>
       </c>
       <c r="F420">
-        <v>-45.04884096209937</v>
+        <v>-45.05</v>
       </c>
       <c r="G420">
-        <v>54.95115903790063</v>
+        <v>54.95</v>
       </c>
     </row>
     <row r="421">
@@ -11473,10 +11473,10 @@
         <v>848148328</v>
       </c>
       <c r="F421">
-        <v>-7.561217010565713</v>
+        <v>-7.56</v>
       </c>
       <c r="G421">
-        <v>50.79618265322387</v>
+        <v>50.8</v>
       </c>
     </row>
     <row r="422">
@@ -11500,10 +11500,10 @@
         <v>984674467.96</v>
       </c>
       <c r="F422">
-        <v>16.09696505349947</v>
+        <v>16.1</v>
       </c>
       <c r="G422">
-        <v>58.97282642342508</v>
+        <v>58.97</v>
       </c>
     </row>
     <row r="423">
@@ -11527,10 +11527,10 @@
         <v>984199562.3</v>
       </c>
       <c r="F423">
-        <v>-0.04822971199649473</v>
+        <v>-0.05</v>
       </c>
       <c r="G423">
-        <v>58.94438399908487</v>
+        <v>58.94</v>
       </c>
     </row>
     <row r="424">
@@ -11578,10 +11578,10 @@
         <v>15414450163.2</v>
       </c>
       <c r="F425">
-        <v>15.09799909510832</v>
+        <v>15.1</v>
       </c>
       <c r="G425">
-        <v>115.0979990951083</v>
+        <v>115.1</v>
       </c>
     </row>
     <row r="426">
@@ -11605,10 +11605,10 @@
         <v>14524465457.47</v>
       </c>
       <c r="F426">
-        <v>-5.773703870766179</v>
+        <v>-5.77</v>
       </c>
       <c r="G426">
-        <v>108.4525814661796</v>
+        <v>108.45</v>
       </c>
     </row>
     <row r="427">
@@ -11632,10 +11632,10 @@
         <v>15273281008.86</v>
       </c>
       <c r="F427">
-        <v>5.155546368178965</v>
+        <v>5.16</v>
       </c>
       <c r="G427">
-        <v>114.0439045911556</v>
+        <v>114.04</v>
       </c>
     </row>
     <row r="428">
@@ -11659,10 +11659,10 @@
         <v>17585477743.03</v>
       </c>
       <c r="F428">
-        <v>15.1388344968491</v>
+        <v>15.14</v>
       </c>
       <c r="G428">
-        <v>131.3088225609551</v>
+        <v>131.31</v>
       </c>
     </row>
     <row r="429">
@@ -11710,10 +11710,10 @@
         <v>15049018538.11</v>
       </c>
       <c r="F430">
-        <v>14.62226652525709</v>
+        <v>14.62</v>
       </c>
       <c r="G430">
-        <v>114.6222665252571</v>
+        <v>114.62</v>
       </c>
     </row>
     <row r="431">
@@ -11737,10 +11737,10 @@
         <v>14139150622.74</v>
       </c>
       <c r="F431">
-        <v>-6.046028271317894</v>
+        <v>-6.05</v>
       </c>
       <c r="G431">
-        <v>107.6921718859147</v>
+        <v>107.69</v>
       </c>
     </row>
     <row r="432">
@@ -11764,10 +11764,10 @@
         <v>14361756265.21</v>
       </c>
       <c r="F432">
-        <v>1.574391902381911</v>
+        <v>1.57</v>
       </c>
       <c r="G432">
-        <v>109.3876687195857</v>
+        <v>109.39</v>
       </c>
     </row>
     <row r="433">
@@ -11791,10 +11791,10 @@
         <v>16736596857.53</v>
       </c>
       <c r="F433">
-        <v>16.53586475404008</v>
+        <v>16.54</v>
       </c>
       <c r="G433">
-        <v>127.4758656766539</v>
+        <v>127.48</v>
       </c>
     </row>
     <row r="434">
@@ -11842,10 +11842,10 @@
         <v>13570061411.83</v>
       </c>
       <c r="F435">
-        <v>13.99070569097365</v>
+        <v>13.99</v>
       </c>
       <c r="G435">
-        <v>113.9907056909736</v>
+        <v>113.99</v>
       </c>
     </row>
     <row r="436">
@@ -11869,10 +11869,10 @@
         <v>12873138218.73</v>
       </c>
       <c r="F436">
-        <v>-5.13574089276001</v>
+        <v>-5.14</v>
       </c>
       <c r="G436">
-        <v>108.1364384048566</v>
+        <v>108.14</v>
       </c>
     </row>
     <row r="437">
@@ -11896,10 +11896,10 @@
         <v>13642409363.59</v>
       </c>
       <c r="F437">
-        <v>5.975785638196096</v>
+        <v>5.98</v>
       </c>
       <c r="G437">
-        <v>114.5984401607108</v>
+        <v>114.6</v>
       </c>
     </row>
     <row r="438">
@@ -11923,10 +11923,10 @@
         <v>16238134143.48</v>
       </c>
       <c r="F438">
-        <v>19.0268794221766</v>
+        <v>19.03</v>
       </c>
       <c r="G438">
-        <v>136.4029471897844</v>
+        <v>136.4</v>
       </c>
     </row>
     <row r="439">
@@ -11974,10 +11974,10 @@
         <v>365431625.09</v>
       </c>
       <c r="F440">
-        <v>38.82636914590292</v>
+        <v>38.83</v>
       </c>
       <c r="G440">
-        <v>138.8263691459029</v>
+        <v>138.83</v>
       </c>
     </row>
     <row r="441">
@@ -12001,10 +12001,10 @@
         <v>385314834.73</v>
       </c>
       <c r="F441">
-        <v>5.441020501469507</v>
+        <v>5.44</v>
       </c>
       <c r="G441">
-        <v>146.3799403525773</v>
+        <v>146.38</v>
       </c>
     </row>
     <row r="442">
@@ -12028,10 +12028,10 @@
         <v>911524743.66</v>
       </c>
       <c r="F442">
-        <v>136.5662210484911</v>
+        <v>136.57</v>
       </c>
       <c r="G442">
-        <v>346.2854932651272</v>
+        <v>346.29</v>
       </c>
     </row>
     <row r="443">
@@ -12055,10 +12055,10 @@
         <v>848880885.5</v>
       </c>
       <c r="F443">
-        <v>-6.872425416392892</v>
+        <v>-6.87</v>
       </c>
       <c r="G443">
-        <v>322.4872810126931</v>
+        <v>322.49</v>
       </c>
     </row>
     <row r="444">
@@ -12106,10 +12106,10 @@
         <v>1478957126.28</v>
       </c>
       <c r="F445">
-        <v>20.7612963406403</v>
+        <v>20.76</v>
       </c>
       <c r="G445">
-        <v>120.7612963406403</v>
+        <v>120.76</v>
       </c>
     </row>
     <row r="446">
@@ -12133,10 +12133,10 @@
         <v>1266012404.01</v>
       </c>
       <c r="F446">
-        <v>-14.39830259350499</v>
+        <v>-14.4</v>
       </c>
       <c r="G446">
-        <v>103.3737194776756</v>
+        <v>103.37</v>
       </c>
     </row>
     <row r="447">
@@ -12160,10 +12160,10 @@
         <v>719346901.62</v>
       </c>
       <c r="F447">
-        <v>-43.18010634480971</v>
+        <v>-43.18</v>
       </c>
       <c r="G447">
-        <v>58.73683747463004</v>
+        <v>58.74</v>
       </c>
     </row>
     <row r="448">
@@ -12187,10 +12187,10 @@
         <v>498462714.05</v>
       </c>
       <c r="F448">
-        <v>-30.70621240913936</v>
+        <v>-30.71</v>
       </c>
       <c r="G448">
-        <v>40.70097939725916</v>
+        <v>40.7</v>
       </c>
     </row>
     <row r="449">
@@ -12238,10 +12238,10 @@
         <v>16263099644.06</v>
       </c>
       <c r="F450">
-        <v>19.77093965896957</v>
+        <v>19.77</v>
       </c>
       <c r="G450">
-        <v>119.7709396589696</v>
+        <v>119.77</v>
       </c>
     </row>
     <row r="451">
@@ -12265,10 +12265,10 @@
         <v>15663685707.75</v>
       </c>
       <c r="F451">
-        <v>-3.685729961870654</v>
+        <v>-3.69</v>
       </c>
       <c r="G451">
-        <v>115.3565062503449</v>
+        <v>115.36</v>
       </c>
     </row>
     <row r="452">
@@ -12292,10 +12292,10 @@
         <v>15918231978.08</v>
       </c>
       <c r="F452">
-        <v>1.625072636665936</v>
+        <v>1.63</v>
       </c>
       <c r="G452">
-        <v>117.2311332680331</v>
+        <v>117.23</v>
       </c>
     </row>
     <row r="453">
@@ -12319,10 +12319,10 @@
         <v>17605361971.84</v>
       </c>
       <c r="F453">
-        <v>10.59872727123994</v>
+        <v>10.6</v>
       </c>
       <c r="G453">
-        <v>129.6561413600957</v>
+        <v>129.66</v>
       </c>
     </row>
     <row r="454">
@@ -12370,10 +12370,10 @@
         <v>14957467690.49</v>
       </c>
       <c r="F455">
-        <v>16.72584169213043</v>
+        <v>16.73</v>
       </c>
       <c r="G455">
-        <v>116.7258416921304</v>
+        <v>116.73</v>
       </c>
     </row>
     <row r="456">
@@ -12397,10 +12397,10 @@
         <v>15068915354.32</v>
       </c>
       <c r="F456">
-        <v>0.7450971390087657</v>
+        <v>0.75</v>
       </c>
       <c r="G456">
-        <v>117.5955625990624</v>
+        <v>117.6</v>
       </c>
     </row>
     <row r="457">
@@ -12424,10 +12424,10 @@
         <v>15298050663.33</v>
       </c>
       <c r="F457">
-        <v>1.520582627364164</v>
+        <v>1.52</v>
       </c>
       <c r="G457">
-        <v>119.3837002944949</v>
+        <v>119.38</v>
       </c>
     </row>
     <row r="458">
@@ -12451,10 +12451,10 @@
         <v>17108443938.4</v>
       </c>
       <c r="F458">
-        <v>11.8341435449</v>
+        <v>11.83</v>
       </c>
       <c r="G458">
-        <v>133.5117387565586</v>
+        <v>133.51</v>
       </c>
     </row>
     <row r="459">
@@ -12502,10 +12502,10 @@
         <v>13989671420.4</v>
       </c>
       <c r="F460">
-        <v>14.91015885695597</v>
+        <v>14.91</v>
       </c>
       <c r="G460">
-        <v>114.910158856956</v>
+        <v>114.91</v>
       </c>
     </row>
     <row r="461">
@@ -12529,10 +12529,10 @@
         <v>14212609426.95</v>
       </c>
       <c r="F461">
-        <v>1.593590012592494</v>
+        <v>1.59</v>
       </c>
       <c r="G461">
-        <v>116.7413556719546</v>
+        <v>116.74</v>
       </c>
     </row>
     <row r="462">
@@ -12556,10 +12556,10 @@
         <v>14589404780.32</v>
       </c>
       <c r="F462">
-        <v>2.651134229126972</v>
+        <v>2.65</v>
       </c>
       <c r="G462">
-        <v>119.8363257117206</v>
+        <v>119.84</v>
       </c>
     </row>
     <row r="463">
@@ -12583,10 +12583,10 @@
         <v>16222369573.43</v>
       </c>
       <c r="F463">
-        <v>11.19281298790713</v>
+        <v>11.19</v>
       </c>
       <c r="G463">
-        <v>133.2493815402128</v>
+        <v>133.25</v>
       </c>
     </row>
     <row r="464">
@@ -12634,10 +12634,10 @@
         <v>1305631953.57</v>
       </c>
       <c r="F465">
-        <v>70.82377609041592</v>
+        <v>70.81999999999999</v>
       </c>
       <c r="G465">
-        <v>170.8237760904159</v>
+        <v>170.82</v>
       </c>
     </row>
     <row r="466">
@@ -12661,10 +12661,10 @@
         <v>594770353.4299999</v>
       </c>
       <c r="F466">
-        <v>-54.44578758939574</v>
+        <v>-54.45</v>
       </c>
       <c r="G466">
-        <v>77.8174258080431</v>
+        <v>77.81999999999999</v>
       </c>
     </row>
     <row r="467">
@@ -12688,10 +12688,10 @@
         <v>620181314.75</v>
       </c>
       <c r="F467">
-        <v>4.272398779370357</v>
+        <v>4.27</v>
       </c>
       <c r="G467">
-        <v>81.14209655840337</v>
+        <v>81.14</v>
       </c>
     </row>
     <row r="468">
@@ -12715,10 +12715,10 @@
         <v>496918033.44</v>
       </c>
       <c r="F468">
-        <v>-19.87536199146671</v>
+        <v>-19.88</v>
       </c>
       <c r="G468">
-        <v>65.01481113995524</v>
+        <v>65.01000000000001</v>
       </c>
     </row>
     <row r="469">
@@ -12766,10 +12766,10 @@
         <v>967796270.09</v>
       </c>
       <c r="F470">
-        <v>51.27859046123859</v>
+        <v>51.28</v>
       </c>
       <c r="G470">
-        <v>151.2785904612386</v>
+        <v>151.28</v>
       </c>
     </row>
     <row r="471">
@@ -12793,10 +12793,10 @@
         <v>856305927.37</v>
       </c>
       <c r="F471">
-        <v>-11.52002194734972</v>
+        <v>-11.52</v>
       </c>
       <c r="G471">
-        <v>133.8512636384626</v>
+        <v>133.85</v>
       </c>
     </row>
     <row r="472">
@@ -12820,10 +12820,10 @@
         <v>708645883</v>
       </c>
       <c r="F472">
-        <v>-17.24384237576319</v>
+        <v>-17.24</v>
       </c>
       <c r="G472">
-        <v>110.7701627186789</v>
+        <v>110.77</v>
       </c>
     </row>
     <row r="473">
@@ -12847,10 +12847,10 @@
         <v>886074364.97</v>
       </c>
       <c r="F473">
-        <v>25.03767907588339</v>
+        <v>25.04</v>
       </c>
       <c r="G473">
-        <v>138.5044405720155</v>
+        <v>138.5</v>
       </c>
     </row>
     <row r="474">
@@ -12898,10 +12898,10 @@
         <v>89880526893.14</v>
       </c>
       <c r="F475">
-        <v>2.101101716284748</v>
+        <v>2.1</v>
       </c>
       <c r="G475">
-        <v>102.1011017162847</v>
+        <v>102.1</v>
       </c>
     </row>
     <row r="476">
@@ -12925,10 +12925,10 @@
         <v>75163537400.22</v>
       </c>
       <c r="F476">
-        <v>-16.37394661739934</v>
+        <v>-16.37</v>
       </c>
       <c r="G476">
-        <v>85.38312182548368</v>
+        <v>85.38</v>
       </c>
     </row>
     <row r="477">
@@ -12952,10 +12952,10 @@
         <v>75075667939.67999</v>
       </c>
       <c r="F477">
-        <v>-0.1169043708948103</v>
+        <v>-0.12</v>
       </c>
       <c r="G477">
-        <v>85.28330522406326</v>
+        <v>85.28</v>
       </c>
     </row>
     <row r="478">
@@ -12979,10 +12979,10 @@
         <v>69812587680.24001</v>
       </c>
       <c r="F478">
-        <v>-7.010367545006247</v>
+        <v>-7.01</v>
       </c>
       <c r="G478">
-        <v>79.30463207332691</v>
+        <v>79.3</v>
       </c>
     </row>
     <row r="479">
@@ -13030,10 +13030,10 @@
         <v>88599647538.22</v>
       </c>
       <c r="F480">
-        <v>2.214458315927792</v>
+        <v>2.21</v>
       </c>
       <c r="G480">
-        <v>102.2144583159278</v>
+        <v>102.21</v>
       </c>
     </row>
     <row r="481">
@@ -13057,10 +13057,10 @@
         <v>73380784910.67</v>
       </c>
       <c r="F481">
-        <v>-17.17711418771154</v>
+        <v>-17.18</v>
       </c>
       <c r="G481">
-        <v>84.65696409465006</v>
+        <v>84.66</v>
       </c>
     </row>
     <row r="482">
@@ -13084,10 +13084,10 @@
         <v>72112805619.67</v>
       </c>
       <c r="F482">
-        <v>-1.727944573696738</v>
+        <v>-1.73</v>
       </c>
       <c r="G482">
-        <v>83.19413867732017</v>
+        <v>83.19</v>
       </c>
     </row>
     <row r="483">
@@ -13111,10 +13111,10 @@
         <v>67778236096.24</v>
       </c>
       <c r="F483">
-        <v>-6.010818031808308</v>
+        <v>-6.01</v>
       </c>
       <c r="G483">
-        <v>78.1934903882962</v>
+        <v>78.19</v>
       </c>
     </row>
     <row r="484">
@@ -13162,10 +13162,10 @@
         <v>79073503835</v>
       </c>
       <c r="F485">
-        <v>2.077313012286663</v>
+        <v>2.08</v>
       </c>
       <c r="G485">
-        <v>102.0773130122867</v>
+        <v>102.08</v>
       </c>
     </row>
     <row r="486">
@@ -13189,10 +13189,10 @@
         <v>65912979370.2</v>
       </c>
       <c r="F486">
-        <v>-16.64340623157617</v>
+        <v>-16.64</v>
       </c>
       <c r="G486">
-        <v>85.08817113737423</v>
+        <v>85.09</v>
       </c>
     </row>
     <row r="487">
@@ -13216,10 +13216,10 @@
         <v>67172989970.4</v>
       </c>
       <c r="F487">
-        <v>1.91162744005724</v>
+        <v>1.91</v>
       </c>
       <c r="G487">
-        <v>86.71473996507915</v>
+        <v>86.70999999999999</v>
       </c>
     </row>
     <row r="488">
@@ -13243,10 +13243,10 @@
         <v>66942970084.68</v>
       </c>
       <c r="F488">
-        <v>-0.3424291308476213</v>
+        <v>-0.34</v>
       </c>
       <c r="G488">
-        <v>86.41780343469996</v>
+        <v>86.42</v>
       </c>
     </row>
     <row r="489">
@@ -13294,10 +13294,10 @@
         <v>1280879354.92</v>
       </c>
       <c r="F490">
-        <v>-5.173169381562836</v>
+        <v>-5.17</v>
       </c>
       <c r="G490">
-        <v>94.82683061843716</v>
+        <v>94.83</v>
       </c>
     </row>
     <row r="491">
@@ -13321,10 +13321,10 @@
         <v>1782752489.55</v>
       </c>
       <c r="F491">
-        <v>39.18192081886942</v>
+        <v>39.18</v>
       </c>
       <c r="G491">
-        <v>131.9818043063966</v>
+        <v>131.98</v>
       </c>
     </row>
     <row r="492">
@@ -13348,10 +13348,10 @@
         <v>2962862320.01</v>
       </c>
       <c r="F492">
-        <v>66.1959434850029</v>
+        <v>66.2</v>
       </c>
       <c r="G492">
-        <v>219.348404895546</v>
+        <v>219.35</v>
       </c>
     </row>
     <row r="493">
@@ -13375,10 +13375,10 @@
         <v>2034351584</v>
       </c>
       <c r="F493">
-        <v>-31.33830180832926</v>
+        <v>-31.34</v>
       </c>
       <c r="G493">
-        <v>150.6083397576238</v>
+        <v>150.61</v>
       </c>
     </row>
     <row r="494">
@@ -13426,10 +13426,10 @@
         <v>9526143703.219999</v>
       </c>
       <c r="F495">
-        <v>3.367243807027465</v>
+        <v>3.37</v>
       </c>
       <c r="G495">
-        <v>103.3672438070275</v>
+        <v>103.37</v>
       </c>
     </row>
     <row r="496">
@@ -13453,10 +13453,10 @@
         <v>7467805540.47</v>
       </c>
       <c r="F496">
-        <v>-21.6072550118496</v>
+        <v>-21.61</v>
       </c>
       <c r="G496">
-        <v>81.03241983892272</v>
+        <v>81.03</v>
       </c>
     </row>
     <row r="497">
@@ -13480,10 +13480,10 @@
         <v>4939815649.27</v>
       </c>
       <c r="F497">
-        <v>-33.8518441260978</v>
+        <v>-33.85</v>
       </c>
       <c r="G497">
-        <v>53.60145138344545</v>
+        <v>53.6</v>
       </c>
     </row>
     <row r="498">
@@ -13507,10 +13507,10 @@
         <v>835266011.5599999</v>
       </c>
       <c r="F498">
-        <v>-83.09115013870134</v>
+        <v>-83.09</v>
       </c>
       <c r="G498">
-        <v>9.063388937903785</v>
+        <v>9.06</v>
       </c>
     </row>
     <row r="499">
@@ -13558,10 +13558,10 @@
         <v>81471190159.16</v>
       </c>
       <c r="F500">
-        <v>-3.766027846846387</v>
+        <v>-3.77</v>
       </c>
       <c r="G500">
-        <v>96.23397215315362</v>
+        <v>96.23</v>
       </c>
     </row>
     <row r="501">
@@ -13585,10 +13585,10 @@
         <v>75125908964.2</v>
       </c>
       <c r="F501">
-        <v>-7.788374249307061</v>
+        <v>-7.79</v>
       </c>
       <c r="G501">
-        <v>88.73891024689206</v>
+        <v>88.73999999999999</v>
       </c>
     </row>
     <row r="502">
@@ -13612,10 +13612,10 @@
         <v>82169957231.44</v>
       </c>
       <c r="F502">
-        <v>9.376323513898143</v>
+        <v>9.380000000000001</v>
       </c>
       <c r="G502">
-        <v>97.05935755434838</v>
+        <v>97.06</v>
       </c>
     </row>
     <row r="503">
@@ -13639,10 +13639,10 @@
         <v>94185316020.28999</v>
       </c>
       <c r="F503">
-        <v>14.62256911611566</v>
+        <v>14.62</v>
       </c>
       <c r="G503">
-        <v>111.2519291963908</v>
+        <v>111.25</v>
       </c>
     </row>
     <row r="504">
@@ -13690,10 +13690,10 @@
         <v>80991925811.75</v>
       </c>
       <c r="F505">
-        <v>-3.817834824810273</v>
+        <v>-3.82</v>
       </c>
       <c r="G505">
-        <v>96.18216517518972</v>
+        <v>96.18000000000001</v>
       </c>
     </row>
     <row r="506">
@@ -13717,10 +13717,10 @@
         <v>74457427036.97</v>
       </c>
       <c r="F506">
-        <v>-8.068086675662178</v>
+        <v>-8.07</v>
       </c>
       <c r="G506">
-        <v>88.42210472232685</v>
+        <v>88.42</v>
       </c>
     </row>
     <row r="507">
@@ -13744,10 +13744,10 @@
         <v>81314612968.05</v>
       </c>
       <c r="F507">
-        <v>9.209539201072904</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="G507">
-        <v>96.56537311914329</v>
+        <v>96.56999999999999</v>
       </c>
     </row>
     <row r="508">
@@ -13771,10 +13771,10 @@
         <v>92889851771.35001</v>
       </c>
       <c r="F508">
-        <v>14.23512746454088</v>
+        <v>14.24</v>
       </c>
       <c r="G508">
-        <v>110.3115770692628</v>
+        <v>110.31</v>
       </c>
     </row>
     <row r="509">
@@ -13822,10 +13822,10 @@
         <v>76083106039.37</v>
       </c>
       <c r="F510">
-        <v>2.175552262576197</v>
+        <v>2.18</v>
       </c>
       <c r="G510">
-        <v>102.1755522625762</v>
+        <v>102.18</v>
       </c>
     </row>
     <row r="511">
@@ -13849,10 +13849,10 @@
         <v>70907129286.08</v>
       </c>
       <c r="F511">
-        <v>-6.80305658211644</v>
+        <v>-6.8</v>
       </c>
       <c r="G511">
-        <v>95.22449162906318</v>
+        <v>95.22</v>
       </c>
     </row>
     <row r="512">
@@ -13876,10 +13876,10 @@
         <v>78427483820.53</v>
       </c>
       <c r="F512">
-        <v>10.60592159091447</v>
+        <v>10.61</v>
       </c>
       <c r="G512">
-        <v>105.3239265465885</v>
+        <v>105.32</v>
       </c>
     </row>
     <row r="513">
@@ -13903,10 +13903,10 @@
         <v>91350357619.09</v>
       </c>
       <c r="F513">
-        <v>16.47748106790235</v>
+        <v>16.48</v>
       </c>
       <c r="G513">
-        <v>122.678656603274</v>
+        <v>122.68</v>
       </c>
     </row>
     <row r="514">
@@ -13954,10 +13954,10 @@
         <v>479264347.41</v>
       </c>
       <c r="F515">
-        <v>5.870858754671793</v>
+        <v>5.87</v>
       </c>
       <c r="G515">
-        <v>105.8708587546718</v>
+        <v>105.87</v>
       </c>
     </row>
     <row r="516">
@@ -13981,10 +13981,10 @@
         <v>668481927.23</v>
       </c>
       <c r="F516">
-        <v>39.48083783877387</v>
+        <v>39.48</v>
       </c>
       <c r="G516">
-        <v>147.6695608181211</v>
+        <v>147.67</v>
       </c>
     </row>
     <row r="517">
@@ -14008,10 +14008,10 @@
         <v>855344263.39</v>
       </c>
       <c r="F517">
-        <v>27.95323681139812</v>
+        <v>27.95</v>
       </c>
       <c r="G517">
-        <v>188.9479828519621</v>
+        <v>188.95</v>
       </c>
     </row>
     <row r="518">
@@ -14035,10 +14035,10 @@
         <v>1295464248.94</v>
       </c>
       <c r="F518">
-        <v>51.4553033658828</v>
+        <v>51.46</v>
       </c>
       <c r="G518">
-        <v>286.1717406321553</v>
+        <v>286.17</v>
       </c>
     </row>
     <row r="519">
@@ -14086,10 +14086,10 @@
         <v>4908819772.39</v>
       </c>
       <c r="F520">
-        <v>-49.62047703472827</v>
+        <v>-49.62</v>
       </c>
       <c r="G520">
-        <v>50.37952296527173</v>
+        <v>50.38</v>
       </c>
     </row>
     <row r="521">
@@ -14113,10 +14113,10 @@
         <v>3550297750.89</v>
       </c>
       <c r="F521">
-        <v>-27.67512527432974</v>
+        <v>-27.68</v>
       </c>
       <c r="G521">
-        <v>36.43692687202306</v>
+        <v>36.44</v>
       </c>
     </row>
     <row r="522">
@@ -14140,10 +14140,10 @@
         <v>2887129147.52</v>
       </c>
       <c r="F522">
-        <v>-18.67923903576128</v>
+        <v>-18.68</v>
       </c>
       <c r="G522">
-        <v>29.63078620431233</v>
+        <v>29.63</v>
       </c>
     </row>
     <row r="523">
@@ -14167,10 +14167,10 @@
         <v>1539494152.26</v>
       </c>
       <c r="F523">
-        <v>-46.67733677302236</v>
+        <v>-46.68</v>
       </c>
       <c r="G523">
-        <v>15.79992433923122</v>
+        <v>15.8</v>
       </c>
     </row>
     <row r="524">
@@ -14218,10 +14218,10 @@
         <v>9267131408.860001</v>
       </c>
       <c r="F525">
-        <v>-2.995045406517294</v>
+        <v>-3</v>
       </c>
       <c r="G525">
-        <v>97.00495459348271</v>
+        <v>97</v>
       </c>
     </row>
     <row r="526">
@@ -14245,10 +14245,10 @@
         <v>9731107156.379999</v>
       </c>
       <c r="F526">
-        <v>5.006681431930571</v>
+        <v>5.01</v>
       </c>
       <c r="G526">
-        <v>101.8616836431673</v>
+        <v>101.86</v>
       </c>
     </row>
     <row r="527">
@@ -14272,10 +14272,10 @@
         <v>10543102107.03</v>
       </c>
       <c r="F527">
-        <v>8.344322363335955</v>
+        <v>8.34</v>
       </c>
       <c r="G527">
-        <v>110.3613508910746</v>
+        <v>110.36</v>
       </c>
     </row>
     <row r="528">
@@ -14299,10 +14299,10 @@
         <v>12312134058.11</v>
       </c>
       <c r="F528">
-        <v>16.77904598780689</v>
+        <v>16.78</v>
       </c>
       <c r="G528">
-        <v>128.878932709853</v>
+        <v>128.88</v>
       </c>
     </row>
     <row r="529">
@@ -14350,10 +14350,10 @@
         <v>8768249812.66</v>
       </c>
       <c r="F530">
-        <v>-3.95592576285998</v>
+        <v>-3.96</v>
       </c>
       <c r="G530">
-        <v>96.04407423714002</v>
+        <v>96.04000000000001</v>
       </c>
     </row>
     <row r="531">
@@ -14377,10 +14377,10 @@
         <v>8654337079.17</v>
       </c>
       <c r="F531">
-        <v>-1.299150183033415</v>
+        <v>-1.3</v>
       </c>
       <c r="G531">
-        <v>94.79631747089546</v>
+        <v>94.8</v>
       </c>
     </row>
     <row r="532">
@@ -14404,10 +14404,10 @@
         <v>8764906580.780001</v>
       </c>
       <c r="F532">
-        <v>1.277619540335784</v>
+        <v>1.28</v>
       </c>
       <c r="G532">
-        <v>96.00745374642237</v>
+        <v>96.01000000000001</v>
       </c>
     </row>
     <row r="533">
@@ -14431,10 +14431,10 @@
         <v>11225884066.57</v>
       </c>
       <c r="F533">
-        <v>28.07762368154063</v>
+        <v>28.08</v>
       </c>
       <c r="G533">
-        <v>122.964065315572</v>
+        <v>122.96</v>
       </c>
     </row>
     <row r="534">
@@ -14482,10 +14482,10 @@
         <v>8646376675.309999</v>
       </c>
       <c r="F535">
-        <v>-3.019092343071728</v>
+        <v>-3.02</v>
       </c>
       <c r="G535">
-        <v>96.98090765692827</v>
+        <v>96.98</v>
       </c>
     </row>
     <row r="536">
@@ -14509,10 +14509,10 @@
         <v>8502251867.68</v>
       </c>
       <c r="F536">
-        <v>-1.666880972714868</v>
+        <v>-1.67</v>
       </c>
       <c r="G536">
-        <v>95.36435136002875</v>
+        <v>95.36</v>
       </c>
     </row>
     <row r="537">
@@ -14536,10 +14536,10 @@
         <v>8618513260.6</v>
       </c>
       <c r="F537">
-        <v>1.367418828909894</v>
+        <v>1.37</v>
       </c>
       <c r="G537">
-        <v>96.66838145659358</v>
+        <v>96.67</v>
       </c>
     </row>
     <row r="538">
@@ -14563,10 +14563,10 @@
         <v>11135149549.65</v>
       </c>
       <c r="F538">
-        <v>29.20035292577594</v>
+        <v>29.2</v>
       </c>
       <c r="G538">
-        <v>124.8958900095543</v>
+        <v>124.9</v>
       </c>
     </row>
     <row r="539">
@@ -14614,10 +14614,10 @@
         <v>498881596.2</v>
       </c>
       <c r="F540">
-        <v>17.70140220542862</v>
+        <v>17.7</v>
       </c>
       <c r="G540">
-        <v>117.7014022054286</v>
+        <v>117.7</v>
       </c>
     </row>
     <row r="541">
@@ -14641,10 +14641,10 @@
         <v>1076770077.21</v>
       </c>
       <c r="F541">
-        <v>115.8368008384752</v>
+        <v>115.84</v>
       </c>
       <c r="G541">
-        <v>254.0429410622236</v>
+        <v>254.04</v>
       </c>
     </row>
     <row r="542">
@@ -14668,10 +14668,10 @@
         <v>1778195526.26</v>
       </c>
       <c r="F542">
-        <v>65.14161787142628</v>
+        <v>65.14</v>
       </c>
       <c r="G542">
-        <v>419.5306229583099</v>
+        <v>419.53</v>
       </c>
     </row>
     <row r="543">
@@ -14695,10 +14695,10 @@
         <v>1086249991.54</v>
       </c>
       <c r="F543">
-        <v>-38.91279246300537</v>
+        <v>-38.91</v>
       </c>
       <c r="G543">
-        <v>256.2795423277892</v>
+        <v>256.28</v>
       </c>
     </row>
     <row r="544">
@@ -14746,10 +14746,10 @@
         <v>121873137.35</v>
       </c>
       <c r="F545">
-        <v>-43.01184625930667</v>
+        <v>-43.01</v>
       </c>
       <c r="G545">
-        <v>56.98815374069333</v>
+        <v>56.99</v>
       </c>
     </row>
     <row r="546">
@@ -14773,10 +14773,10 @@
         <v>152085211.49</v>
       </c>
       <c r="F546">
-        <v>24.78977303524714</v>
+        <v>24.79</v>
       </c>
       <c r="G546">
-        <v>71.11538770998892</v>
+        <v>71.12</v>
       </c>
     </row>
     <row r="547">
@@ -14800,10 +14800,10 @@
         <v>146393320.18</v>
       </c>
       <c r="F547">
-        <v>-3.742567245188244</v>
+        <v>-3.74</v>
       </c>
       <c r="G547">
-        <v>68.45384650326625</v>
+        <v>68.45</v>
       </c>
     </row>
     <row r="548">
@@ -14827,10 +14827,10 @@
         <v>90734516.92</v>
       </c>
       <c r="F548">
-        <v>-38.02004298527004</v>
+        <v>-38.02</v>
       </c>
       <c r="G548">
-        <v>42.42766463765364</v>
+        <v>42.43</v>
       </c>
     </row>
     <row r="549">
@@ -14878,10 +14878,10 @@
         <v>4587325054.49</v>
       </c>
       <c r="F550">
-        <v>11.84694989720674</v>
+        <v>11.85</v>
       </c>
       <c r="G550">
-        <v>111.8469498972067</v>
+        <v>111.85</v>
       </c>
     </row>
     <row r="551">
@@ -14905,10 +14905,10 @@
         <v>4648016698.51</v>
       </c>
       <c r="F551">
-        <v>1.323029070298753</v>
+        <v>1.32</v>
       </c>
       <c r="G551">
-        <v>113.3267175585893</v>
+        <v>113.33</v>
       </c>
     </row>
     <row r="552">
@@ -14932,10 +14932,10 @@
         <v>5528809058.18</v>
       </c>
       <c r="F552">
-        <v>18.94985359997421</v>
+        <v>18.95</v>
       </c>
       <c r="G552">
-        <v>134.8019646255982</v>
+        <v>134.8</v>
       </c>
     </row>
     <row r="553">
@@ -14959,10 +14959,10 @@
         <v>7045897589.73</v>
       </c>
       <c r="F553">
-        <v>27.43969841579954</v>
+        <v>27.44</v>
       </c>
       <c r="G553">
-        <v>171.7912171774351</v>
+        <v>171.79</v>
       </c>
     </row>
     <row r="554">
@@ -15010,10 +15010,10 @@
         <v>4343376441.07</v>
       </c>
       <c r="F555">
-        <v>10.11114864420695</v>
+        <v>10.11</v>
       </c>
       <c r="G555">
-        <v>110.1111486442069</v>
+        <v>110.11</v>
       </c>
     </row>
     <row r="556">
@@ -15037,10 +15037,10 @@
         <v>4312090534.01</v>
       </c>
       <c r="F556">
-        <v>-0.7203130441139516</v>
+        <v>-0.72</v>
       </c>
       <c r="G556">
-        <v>109.318003677499</v>
+        <v>109.32</v>
       </c>
     </row>
     <row r="557">
@@ -15064,10 +15064,10 @@
         <v>4967485106.85</v>
       </c>
       <c r="F557">
-        <v>15.1989984363923</v>
+        <v>15.2</v>
       </c>
       <c r="G557">
-        <v>125.9332453471374</v>
+        <v>125.93</v>
       </c>
     </row>
     <row r="558">
@@ -15091,10 +15091,10 @@
         <v>6698726564.78</v>
       </c>
       <c r="F558">
-        <v>34.85146750702229</v>
+        <v>34.85</v>
       </c>
       <c r="G558">
-        <v>169.8228294298336</v>
+        <v>169.82</v>
       </c>
     </row>
     <row r="559">
@@ -15142,10 +15142,10 @@
         <v>4236657360.22</v>
       </c>
       <c r="F560">
-        <v>14.57392383742409</v>
+        <v>14.57</v>
       </c>
       <c r="G560">
-        <v>114.5739238374241</v>
+        <v>114.57</v>
       </c>
     </row>
     <row r="561">
@@ -15169,10 +15169,10 @@
         <v>4214079141.83</v>
       </c>
       <c r="F561">
-        <v>-0.5329252868546241</v>
+        <v>-0.53</v>
       </c>
       <c r="G561">
-        <v>113.9633304251529</v>
+        <v>113.96</v>
       </c>
     </row>
     <row r="562">
@@ -15196,10 +15196,10 @@
         <v>4872397707.16</v>
       </c>
       <c r="F562">
-        <v>15.62188424026891</v>
+        <v>15.62</v>
       </c>
       <c r="G562">
-        <v>131.7665499805254</v>
+        <v>131.77</v>
       </c>
     </row>
     <row r="563">
@@ -15223,10 +15223,10 @@
         <v>6630016514.87</v>
       </c>
       <c r="F563">
-        <v>36.07297501858633</v>
+        <v>36.07</v>
       </c>
       <c r="G563">
-        <v>179.2986646378534</v>
+        <v>179.3</v>
       </c>
     </row>
     <row r="564">
@@ -15274,10 +15274,10 @@
         <v>243493552.26</v>
       </c>
       <c r="F565">
-        <v>55.19788432476278</v>
+        <v>55.2</v>
       </c>
       <c r="G565">
-        <v>155.1978843247628</v>
+        <v>155.2</v>
       </c>
     </row>
     <row r="566">
@@ -15301,10 +15301,10 @@
         <v>335926164.5</v>
       </c>
       <c r="F566">
-        <v>37.96101021241884</v>
+        <v>37.96</v>
       </c>
       <c r="G566">
-        <v>214.112569042744</v>
+        <v>214.11</v>
       </c>
     </row>
     <row r="567">
@@ -15328,10 +15328,10 @@
         <v>561323951.3200001</v>
       </c>
       <c r="F567">
-        <v>67.0974192068329</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="G567">
-        <v>357.7765770678734</v>
+        <v>357.78</v>
       </c>
     </row>
     <row r="568">
@@ -15355,10 +15355,10 @@
         <v>347171024.95</v>
       </c>
       <c r="F568">
-        <v>-38.15139650934217</v>
+        <v>-38.15</v>
       </c>
       <c r="G568">
-        <v>221.2798165331568</v>
+        <v>221.28</v>
       </c>
     </row>
     <row r="569">
@@ -15406,10 +15406,10 @@
         <v>106682747.54</v>
       </c>
       <c r="F570">
-        <v>-56.77154141627909</v>
+        <v>-56.77</v>
       </c>
       <c r="G570">
-        <v>43.22845858372091</v>
+        <v>43.23</v>
       </c>
     </row>
     <row r="571">
@@ -15433,10 +15433,10 @@
         <v>98011392.18000001</v>
       </c>
       <c r="F571">
-        <v>-8.128170261783641</v>
+        <v>-8.130000000000001</v>
       </c>
       <c r="G571">
-        <v>39.71477586849145</v>
+        <v>39.71</v>
       </c>
     </row>
     <row r="572">
@@ -15460,10 +15460,10 @@
         <v>95087399.69</v>
       </c>
       <c r="F572">
-        <v>-2.983319005029572</v>
+        <v>-2.98</v>
       </c>
       <c r="G572">
-        <v>38.52995741220185</v>
+        <v>38.53</v>
       </c>
     </row>
     <row r="573">
@@ -15487,10 +15487,10 @@
         <v>68710049.91</v>
       </c>
       <c r="F573">
-        <v>-27.74011053619548</v>
+        <v>-27.74</v>
       </c>
       <c r="G573">
-        <v>27.84170463650801</v>
+        <v>27.84</v>
       </c>
     </row>
     <row r="574">
@@ -15538,10 +15538,10 @@
         <v>34117956992.43</v>
       </c>
       <c r="F575">
-        <v>-0.2346560749267979</v>
+        <v>-0.23</v>
       </c>
       <c r="G575">
-        <v>99.7653439250732</v>
+        <v>99.77</v>
       </c>
     </row>
     <row r="576">
@@ -15565,10 +15565,10 @@
         <v>32703474806.13</v>
       </c>
       <c r="F576">
-        <v>-4.145858401233815</v>
+        <v>-4.15</v>
       </c>
       <c r="G576">
-        <v>95.62921403243575</v>
+        <v>95.63</v>
       </c>
     </row>
     <row r="577">
@@ -15592,10 +15592,10 @@
         <v>35697999533.54</v>
       </c>
       <c r="F577">
-        <v>9.156594964791642</v>
+        <v>9.16</v>
       </c>
       <c r="G577">
-        <v>104.3855938293996</v>
+        <v>104.39</v>
       </c>
     </row>
     <row r="578">
@@ -15619,10 +15619,10 @@
         <v>43629025525.5</v>
       </c>
       <c r="F578">
-        <v>22.21700402149542</v>
+        <v>22.22</v>
       </c>
       <c r="G578">
-        <v>127.5769454083392</v>
+        <v>127.58</v>
       </c>
     </row>
     <row r="579">
@@ -15670,10 +15670,10 @@
         <v>33169052688</v>
       </c>
       <c r="F580">
-        <v>-1.117577355596489</v>
+        <v>-1.12</v>
       </c>
       <c r="G580">
-        <v>98.8824226444035</v>
+        <v>98.88</v>
       </c>
     </row>
     <row r="581">
@@ -15697,10 +15697,10 @@
         <v>31897725795.76</v>
       </c>
       <c r="F581">
-        <v>-3.832870670738042</v>
+        <v>-3.83</v>
       </c>
       <c r="G581">
-        <v>95.09238726835095</v>
+        <v>95.09</v>
       </c>
     </row>
     <row r="582">
@@ -15724,10 +15724,10 @@
         <v>34231006531.01</v>
       </c>
       <c r="F582">
-        <v>7.314881161716391</v>
+        <v>7.31</v>
       </c>
       <c r="G582">
-        <v>102.0482823908699</v>
+        <v>102.05</v>
       </c>
     </row>
     <row r="583">
@@ -15751,10 +15751,10 @@
         <v>41943909449.89</v>
       </c>
       <c r="F583">
-        <v>22.531919743268</v>
+        <v>22.53</v>
       </c>
       <c r="G583">
-        <v>125.0417194785642</v>
+        <v>125.04</v>
       </c>
     </row>
     <row r="584">
@@ -15802,10 +15802,10 @@
         <v>32782808113.1</v>
       </c>
       <c r="F585">
-        <v>-0.8650178234985151</v>
+        <v>-0.87</v>
       </c>
       <c r="G585">
-        <v>99.13498217650148</v>
+        <v>99.13</v>
       </c>
     </row>
     <row r="586">
@@ -15829,10 +15829,10 @@
         <v>31632092897.17</v>
       </c>
       <c r="F586">
-        <v>-3.510117900699838</v>
+        <v>-3.51</v>
       </c>
       <c r="G586">
-        <v>95.65522742126851</v>
+        <v>95.66</v>
       </c>
     </row>
     <row r="587">
@@ -15856,10 +15856,10 @@
         <v>33750589398.03</v>
       </c>
       <c r="F587">
-        <v>6.697301085156893</v>
+        <v>6.7</v>
       </c>
       <c r="G587">
-        <v>102.0615460053624</v>
+        <v>102.06</v>
       </c>
     </row>
     <row r="588">
@@ -15883,10 +15883,10 @@
         <v>41624351141.7</v>
       </c>
       <c r="F588">
-        <v>23.32925701181854</v>
+        <v>23.33</v>
       </c>
       <c r="G588">
-        <v>125.8717463831888</v>
+        <v>125.87</v>
       </c>
     </row>
     <row r="589">
@@ -15934,10 +15934,10 @@
         <v>948904304.4299999</v>
       </c>
       <c r="F590">
-        <v>45.03184244927094</v>
+        <v>45.03</v>
       </c>
       <c r="G590">
-        <v>145.031842449271</v>
+        <v>145.03</v>
       </c>
     </row>
     <row r="591">
@@ -15961,10 +15961,10 @@
         <v>805749010.37</v>
       </c>
       <c r="F591">
-        <v>-15.08637840419454</v>
+        <v>-15.09</v>
       </c>
       <c r="G591">
-        <v>123.1517898907987</v>
+        <v>123.15</v>
       </c>
     </row>
     <row r="592">
@@ -15988,10 +15988,10 @@
         <v>1466993002.52</v>
       </c>
       <c r="F592">
-        <v>82.06575293792253</v>
+        <v>82.06999999999999</v>
       </c>
       <c r="G592">
-        <v>224.2172335212109</v>
+        <v>224.22</v>
       </c>
     </row>
     <row r="593">
@@ -16015,10 +16015,10 @@
         <v>1685116075.61</v>
       </c>
       <c r="F593">
-        <v>14.86871939506924</v>
+        <v>14.87</v>
       </c>
       <c r="G593">
-        <v>257.5554648088669</v>
+        <v>257.56</v>
       </c>
     </row>
     <row r="594">
@@ -16066,10 +16066,10 @@
         <v>386244574.9</v>
       </c>
       <c r="F595">
-        <v>-18.69775065172287</v>
+        <v>-18.7</v>
       </c>
       <c r="G595">
-        <v>81.30224934827713</v>
+        <v>81.3</v>
       </c>
     </row>
     <row r="596">
@@ -16093,10 +16093,10 @@
         <v>265632898.59</v>
       </c>
       <c r="F596">
-        <v>-31.22676256131928</v>
+        <v>-31.23</v>
       </c>
       <c r="G596">
-        <v>55.91418898727888</v>
+        <v>55.91</v>
       </c>
     </row>
     <row r="597">
@@ -16120,10 +16120,10 @@
         <v>480417132.98</v>
       </c>
       <c r="F597">
-        <v>80.85754269523517</v>
+        <v>80.86</v>
       </c>
       <c r="G597">
-        <v>101.1250282203624</v>
+        <v>101.13</v>
       </c>
     </row>
     <row r="598">
@@ -16147,10 +16147,10 @@
         <v>319558308.19</v>
       </c>
       <c r="F598">
-        <v>-33.48315739536638</v>
+        <v>-33.48</v>
       </c>
       <c r="G598">
-        <v>67.26517585522977</v>
+        <v>67.27</v>
       </c>
     </row>
     <row r="599">
@@ -16198,10 +16198,10 @@
         <v>11636179197.43</v>
       </c>
       <c r="F600">
-        <v>4.32120442487165</v>
+        <v>4.32</v>
       </c>
       <c r="G600">
-        <v>104.3212044248717</v>
+        <v>104.32</v>
       </c>
     </row>
     <row r="601">
@@ -16225,10 +16225,10 @@
         <v>11572521533.86</v>
       </c>
       <c r="F601">
-        <v>-0.5470667174329757</v>
+        <v>-0.55</v>
       </c>
       <c r="G601">
-        <v>103.750497836238</v>
+        <v>103.75</v>
       </c>
     </row>
     <row r="602">
@@ -16252,10 +16252,10 @@
         <v>11747707773.38</v>
       </c>
       <c r="F602">
-        <v>1.513812171421947</v>
+        <v>1.51</v>
       </c>
       <c r="G602">
-        <v>105.3210855003938</v>
+        <v>105.32</v>
       </c>
     </row>
     <row r="603">
@@ -16279,10 +16279,10 @@
         <v>13167550398.38</v>
       </c>
       <c r="F603">
-        <v>12.08612482017408</v>
+        <v>12.09</v>
       </c>
       <c r="G603">
-        <v>118.0503233559337</v>
+        <v>118.05</v>
       </c>
     </row>
     <row r="604">
@@ -16330,10 +16330,10 @@
         <v>11605069940.75</v>
       </c>
       <c r="F605">
-        <v>4.042302298103362</v>
+        <v>4.04</v>
       </c>
       <c r="G605">
-        <v>104.0423022981034</v>
+        <v>104.04</v>
       </c>
     </row>
     <row r="606">
@@ -16357,10 +16357,10 @@
         <v>11515904920.47</v>
       </c>
       <c r="F606">
-        <v>-0.7683281594616398</v>
+        <v>-0.77</v>
       </c>
       <c r="G606">
-        <v>103.2429159917948</v>
+        <v>103.24</v>
       </c>
     </row>
     <row r="607">
@@ -16384,10 +16384,10 @@
         <v>11615388912.63</v>
       </c>
       <c r="F607">
-        <v>0.8638834103533055</v>
+        <v>0.86</v>
       </c>
       <c r="G607">
-        <v>104.1348144154129</v>
+        <v>104.13</v>
       </c>
     </row>
     <row r="608">
@@ -16411,10 +16411,10 @@
         <v>12971338563.67</v>
       </c>
       <c r="F608">
-        <v>11.67373439873036</v>
+        <v>11.67</v>
       </c>
       <c r="G608">
-        <v>116.291236066879</v>
+        <v>116.29</v>
       </c>
     </row>
     <row r="609">
@@ -16462,10 +16462,10 @@
         <v>11132372736.23</v>
       </c>
       <c r="F610">
-        <v>2.660941294535313</v>
+        <v>2.66</v>
       </c>
       <c r="G610">
-        <v>102.6609412945353</v>
+        <v>102.66</v>
       </c>
     </row>
     <row r="611">
@@ -16489,10 +16489,10 @@
         <v>11341156557.52</v>
       </c>
       <c r="F611">
-        <v>1.875465601421333</v>
+        <v>1.88</v>
       </c>
       <c r="G611">
-        <v>104.5863119346097</v>
+        <v>104.59</v>
       </c>
     </row>
     <row r="612">
@@ -16516,10 +16516,10 @@
         <v>11526264130.2</v>
       </c>
       <c r="F612">
-        <v>1.632175446491479</v>
+        <v>1.63</v>
       </c>
       <c r="G612">
-        <v>106.2933440383974</v>
+        <v>106.29</v>
       </c>
     </row>
     <row r="613">
@@ -16543,10 +16543,10 @@
         <v>12891383935.09</v>
       </c>
       <c r="F613">
-        <v>11.84355823768817</v>
+        <v>11.84</v>
       </c>
       <c r="G613">
-        <v>118.8822581423712</v>
+        <v>118.88</v>
       </c>
     </row>
     <row r="614">
@@ -16594,10 +16594,10 @@
         <v>56616613.39</v>
       </c>
       <c r="F615">
-        <v>81.99281954621334</v>
+        <v>81.98999999999999</v>
       </c>
       <c r="G615">
-        <v>181.9928195462133</v>
+        <v>181.99</v>
       </c>
     </row>
     <row r="616">
@@ -16621,10 +16621,10 @@
         <v>132318860.74</v>
       </c>
       <c r="F616">
-        <v>133.7103065994601</v>
+        <v>133.71</v>
       </c>
       <c r="G616">
-        <v>425.3359765504574</v>
+        <v>425.34</v>
       </c>
     </row>
     <row r="617">
@@ -16648,10 +16648,10 @@
         <v>196211834.71</v>
       </c>
       <c r="F617">
-        <v>48.28712521606919</v>
+        <v>48.29</v>
       </c>
       <c r="G617">
-        <v>630.7184921363674</v>
+        <v>630.72</v>
       </c>
     </row>
     <row r="618">
@@ -16699,10 +16699,10 @@
         <v>473589925.76</v>
       </c>
       <c r="F619">
-        <v>52.59414156605644</v>
+        <v>52.59</v>
       </c>
       <c r="G619">
-        <v>152.5941415660564</v>
+        <v>152.59</v>
       </c>
     </row>
     <row r="620">
@@ -16726,10 +16726,10 @@
         <v>174748362.95</v>
       </c>
       <c r="F620">
-        <v>-63.10133441509124</v>
+        <v>-63.1</v>
       </c>
       <c r="G620">
-        <v>56.30520199862141</v>
+        <v>56.31</v>
       </c>
     </row>
     <row r="621">
@@ -16753,10 +16753,10 @@
         <v>89124782.43000001</v>
       </c>
       <c r="F621">
-        <v>-48.99821610603534</v>
+        <v>-49</v>
       </c>
       <c r="G621">
-        <v>28.71665744439716</v>
+        <v>28.72</v>
       </c>
     </row>
     <row r="622">
@@ -16780,10 +16780,10 @@
         <v>79954628.58</v>
       </c>
       <c r="F622">
-        <v>-10.28911779639113</v>
+        <v>-10.29</v>
       </c>
       <c r="G622">
-        <v>25.76196673275701</v>
+        <v>25.76</v>
       </c>
     </row>
     <row r="623">
@@ -16831,10 +16831,10 @@
         <v>313951464807.5</v>
       </c>
       <c r="F624">
-        <v>2.193579478982133</v>
+        <v>2.19</v>
       </c>
       <c r="G624">
-        <v>102.1935794789821</v>
+        <v>102.19</v>
       </c>
     </row>
     <row r="625">
@@ -16858,10 +16858,10 @@
         <v>300917893390.11</v>
       </c>
       <c r="F625">
-        <v>-4.151460616812718</v>
+        <v>-4.15</v>
       </c>
       <c r="G625">
-        <v>97.95105327400098</v>
+        <v>97.95</v>
       </c>
     </row>
     <row r="626">
@@ -16885,10 +16885,10 @@
         <v>316544910978.49</v>
       </c>
       <c r="F626">
-        <v>5.193116770932971</v>
+        <v>5.19</v>
       </c>
       <c r="G626">
-        <v>103.0377658488786</v>
+        <v>103.04</v>
       </c>
     </row>
     <row r="627">
@@ -16912,10 +16912,10 @@
         <v>347319491647.77</v>
       </c>
       <c r="F627">
-        <v>9.722026670449701</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="G627">
-        <v>113.0551249253421</v>
+        <v>113.06</v>
       </c>
     </row>
     <row r="628">
@@ -16963,10 +16963,10 @@
         <v>310215514129.03</v>
       </c>
       <c r="F629">
-        <v>2.080955831805897</v>
+        <v>2.08</v>
       </c>
       <c r="G629">
-        <v>102.0809558318059</v>
+        <v>102.08</v>
       </c>
     </row>
     <row r="630">
@@ -16990,10 +16990,10 @@
         <v>294857912030.14</v>
       </c>
       <c r="F630">
-        <v>-4.950623485742955</v>
+        <v>-4.95</v>
       </c>
       <c r="G630">
-        <v>97.02731205792561</v>
+        <v>97.03</v>
       </c>
     </row>
     <row r="631">
@@ -17017,10 +17017,10 @@
         <v>301605149812.23</v>
       </c>
       <c r="F631">
-        <v>2.288301418006466</v>
+        <v>2.29</v>
       </c>
       <c r="G631">
-        <v>99.24758941560069</v>
+        <v>99.25</v>
       </c>
     </row>
     <row r="632">
@@ -17044,10 +17044,10 @@
         <v>334815367234.23</v>
       </c>
       <c r="F632">
-        <v>11.01115728384467</v>
+        <v>11.01</v>
       </c>
       <c r="G632">
-        <v>110.1758975865769</v>
+        <v>110.18</v>
       </c>
     </row>
     <row r="633">
@@ -17095,10 +17095,10 @@
         <v>289984198733.17</v>
       </c>
       <c r="F634">
-        <v>1.52314568175218</v>
+        <v>1.52</v>
       </c>
       <c r="G634">
-        <v>101.5231456817522</v>
+        <v>101.52</v>
       </c>
     </row>
     <row r="635">
@@ -17122,10 +17122,10 @@
         <v>274469552809.84</v>
       </c>
       <c r="F635">
-        <v>-5.350169419957207</v>
+        <v>-5.35</v>
       </c>
       <c r="G635">
-        <v>96.09148538730847</v>
+        <v>96.09</v>
       </c>
     </row>
     <row r="636">
@@ -17149,10 +17149,10 @@
         <v>272435869112.99</v>
       </c>
       <c r="F636">
-        <v>-0.7409505630152746</v>
+        <v>-0.74</v>
       </c>
       <c r="G636">
-        <v>95.37949498532147</v>
+        <v>95.38</v>
       </c>
     </row>
     <row r="637">
@@ -17176,10 +17176,10 @@
         <v>308680404732.82</v>
       </c>
       <c r="F637">
-        <v>13.30387798707884</v>
+        <v>13.3</v>
       </c>
       <c r="G637">
-        <v>108.0686666228606</v>
+        <v>108.07</v>
       </c>
     </row>
     <row r="638">
@@ -17227,10 +17227,10 @@
         <v>3735950678.46</v>
       </c>
       <c r="F639">
-        <v>12.49978846207245</v>
+        <v>12.5</v>
       </c>
       <c r="G639">
-        <v>112.4997884620724</v>
+        <v>112.5</v>
       </c>
     </row>
     <row r="640">
@@ -17254,10 +17254,10 @@
         <v>6059981359.97</v>
       </c>
       <c r="F640">
-        <v>62.20720993211803</v>
+        <v>62.21</v>
       </c>
       <c r="G640">
-        <v>182.4827680438626</v>
+        <v>182.48</v>
       </c>
     </row>
     <row r="641">
@@ -17281,10 +17281,10 @@
         <v>14939761166.26</v>
       </c>
       <c r="F641">
-        <v>146.5314706237637</v>
+        <v>146.53</v>
       </c>
       <c r="G641">
-        <v>449.877451693486</v>
+        <v>449.88</v>
       </c>
     </row>
     <row r="642">
@@ -17308,10 +17308,10 @@
         <v>12504124413.54</v>
       </c>
       <c r="F642">
-        <v>-16.30305013322869</v>
+        <v>-16.3</v>
       </c>
       <c r="G642">
-        <v>376.5337052058053</v>
+        <v>376.53</v>
       </c>
     </row>
     <row r="643">
@@ -17359,10 +17359,10 @@
         <v>20231315395.86</v>
       </c>
       <c r="F644">
-        <v>10.80746565479018</v>
+        <v>10.81</v>
       </c>
       <c r="G644">
-        <v>110.8074656547902</v>
+        <v>110.81</v>
       </c>
     </row>
     <row r="645">
@@ -17386,10 +17386,10 @@
         <v>20388359220.31</v>
       </c>
       <c r="F645">
-        <v>0.7762412941381802</v>
+        <v>0.78</v>
       </c>
       <c r="G645">
-        <v>111.6675989601906</v>
+        <v>111.67</v>
       </c>
     </row>
     <row r="646">
@@ -17413,10 +17413,10 @@
         <v>29169280699.25</v>
       </c>
       <c r="F646">
-        <v>43.06830865621018</v>
+        <v>43.07</v>
       </c>
       <c r="G646">
-        <v>159.7609451493445</v>
+        <v>159.76</v>
       </c>
     </row>
     <row r="647">
@@ -17440,10 +17440,10 @@
         <v>26134962501.41</v>
       </c>
       <c r="F647">
-        <v>-10.40244436990185</v>
+        <v>-10.4</v>
       </c>
       <c r="G647">
-        <v>143.1419017053545</v>
+        <v>143.14</v>
       </c>
     </row>
     <row r="648">
@@ -17491,10 +17491,10 @@
         <v>11109286389.87</v>
       </c>
       <c r="F649">
-        <v>2.643763096778895</v>
+        <v>2.64</v>
       </c>
       <c r="G649">
-        <v>102.6437630967789</v>
+        <v>102.64</v>
       </c>
     </row>
     <row r="650">
@@ -17518,10 +17518,10 @@
         <v>12163289982.67</v>
       </c>
       <c r="F650">
-        <v>9.487590433901239</v>
+        <v>9.49</v>
       </c>
       <c r="G650">
-        <v>112.3821829453451</v>
+        <v>112.38</v>
       </c>
     </row>
     <row r="651">
@@ -17545,10 +17545,10 @@
         <v>12307342401.7</v>
       </c>
       <c r="F651">
-        <v>1.184321176550451</v>
+        <v>1.18</v>
       </c>
       <c r="G651">
-        <v>113.7131489366365</v>
+        <v>113.71</v>
       </c>
     </row>
     <row r="652">
@@ -17572,10 +17572,10 @@
         <v>14562405906.65</v>
       </c>
       <c r="F652">
-        <v>18.32291189557307</v>
+        <v>18.32</v>
       </c>
       <c r="G652">
-        <v>134.5487090299782</v>
+        <v>134.55</v>
       </c>
     </row>
     <row r="653">
@@ -17623,10 +17623,10 @@
         <v>10864713780.95</v>
       </c>
       <c r="F654">
-        <v>2.623242950063753</v>
+        <v>2.62</v>
       </c>
       <c r="G654">
-        <v>102.6232429500638</v>
+        <v>102.62</v>
       </c>
     </row>
     <row r="655">
@@ -17650,10 +17650,10 @@
         <v>11713832949.75</v>
       </c>
       <c r="F655">
-        <v>7.815384610396547</v>
+        <v>7.82</v>
       </c>
       <c r="G655">
-        <v>110.6436440862729</v>
+        <v>110.64</v>
       </c>
     </row>
     <row r="656">
@@ -17677,10 +17677,10 @@
         <v>11693625930.76</v>
       </c>
       <c r="F656">
-        <v>-0.1725056100482569</v>
+        <v>-0.17</v>
       </c>
       <c r="G656">
-        <v>110.4527775930623</v>
+        <v>110.45</v>
       </c>
     </row>
     <row r="657">
@@ -17704,10 +17704,10 @@
         <v>13935184946.25</v>
       </c>
       <c r="F657">
-        <v>19.16906722314074</v>
+        <v>19.17</v>
       </c>
       <c r="G657">
-        <v>131.6255447797025</v>
+        <v>131.63</v>
       </c>
     </row>
     <row r="658">
@@ -17755,10 +17755,10 @@
         <v>10264343995.33</v>
       </c>
       <c r="F659">
-        <v>-1.844181981502269</v>
+        <v>-1.84</v>
       </c>
       <c r="G659">
-        <v>98.15581801849773</v>
+        <v>98.16</v>
       </c>
     </row>
     <row r="660">
@@ -17782,10 +17782,10 @@
         <v>11175054582.96</v>
       </c>
       <c r="F660">
-        <v>8.872564949541317</v>
+        <v>8.869999999999999</v>
       </c>
       <c r="G660">
-        <v>106.8647567239425</v>
+        <v>106.86</v>
       </c>
     </row>
     <row r="661">
@@ -17809,10 +17809,10 @@
         <v>11397952684.32</v>
       </c>
       <c r="F661">
-        <v>1.994604140009137</v>
+        <v>1.99</v>
       </c>
       <c r="G661">
-        <v>108.996285585769</v>
+        <v>109</v>
       </c>
     </row>
     <row r="662">
@@ -17836,10 +17836,10 @@
         <v>13780234749.4</v>
       </c>
       <c r="F662">
-        <v>20.90096468251945</v>
+        <v>20.9</v>
       </c>
       <c r="G662">
-        <v>131.7775607413086</v>
+        <v>131.78</v>
       </c>
     </row>
     <row r="663">
@@ -17887,10 +17887,10 @@
         <v>244572608.92</v>
       </c>
       <c r="F664">
-        <v>3.563688710569668</v>
+        <v>3.56</v>
       </c>
       <c r="G664">
-        <v>103.5636887105697</v>
+        <v>103.56</v>
       </c>
     </row>
     <row r="665">
@@ -17914,10 +17914,10 @@
         <v>449457032.93</v>
       </c>
       <c r="F665">
-        <v>83.77243261816699</v>
+        <v>83.77</v>
       </c>
       <c r="G665">
-        <v>190.3215100525198</v>
+        <v>190.32</v>
       </c>
     </row>
     <row r="666">
@@ -17941,10 +17941,10 @@
         <v>613716470.9400001</v>
       </c>
       <c r="F666">
-        <v>36.54619373495984</v>
+        <v>36.55</v>
       </c>
       <c r="G666">
-        <v>259.8767778356148</v>
+        <v>259.88</v>
       </c>
     </row>
     <row r="667">
@@ -17968,10 +17968,10 @@
         <v>627220960.4</v>
       </c>
       <c r="F667">
-        <v>2.200444358176634</v>
+        <v>2.2</v>
       </c>
       <c r="G667">
-        <v>265.5952217317098</v>
+        <v>265.6</v>
       </c>
     </row>
     <row r="668">
@@ -18019,10 +18019,10 @@
         <v>600369785.61</v>
       </c>
       <c r="F669">
-        <v>362.5430498362524</v>
+        <v>362.54</v>
       </c>
       <c r="G669">
-        <v>462.5430498362524</v>
+        <v>462.54</v>
       </c>
     </row>
     <row r="670">
@@ -18046,10 +18046,10 @@
         <v>538778366.79</v>
       </c>
       <c r="F670">
-        <v>-10.25891380550084</v>
+        <v>-10.26</v>
       </c>
       <c r="G670">
-        <v>415.0911570402166</v>
+        <v>415.09</v>
       </c>
     </row>
     <row r="671">
@@ -18073,10 +18073,10 @@
         <v>295673246.44</v>
       </c>
       <c r="F671">
-        <v>-45.12154446705081</v>
+        <v>-45.12</v>
       </c>
       <c r="G671">
-        <v>227.7956160375195</v>
+        <v>227.8</v>
       </c>
     </row>
     <row r="672">
@@ -18100,10 +18100,10 @@
         <v>154950196.85</v>
       </c>
       <c r="F672">
-        <v>-47.59410981018753</v>
+        <v>-47.59</v>
       </c>
       <c r="G672">
-        <v>119.3783203978293</v>
+        <v>119.38</v>
       </c>
     </row>
   </sheetData>
